--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.613</v>
+        <v>28.612</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.88594327372525</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.88595430885911</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.88595461557557</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.88576966393251</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.88578035316244</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.88578379502704</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.88592445359532</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.88593127739211</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.88593565249415</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.88533503115065</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.88534019016921</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.88534046197222</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.88529268515932</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.88530494652922</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.88530612116111</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.88517144688105</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.88518690129466</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.88518898123921</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.88487438933191</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.88489733363261</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.88489835228033</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.88512453219536</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.88513663650509</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.88515955022211</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.88418157655464</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.88418138657422</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.88418188230425</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.88411755366885</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.88411249594514</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.88411111116305</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.8849863004326</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.88496238165951</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.88501181397194</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.88485760559411</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.88480059507018</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.88480008697911</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.88503864929129</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.88500261064365</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.88485601299304</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.88371913765013</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.88371600740674</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.88371504779184</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.88364735082443</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.88363470855775</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.88363391344287</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.88599911531565</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.88563689139625</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.88562647751213</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.88545828678271</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.88545363095536</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.88544614136329</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.88562837312059</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.8856176376477</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.88561434095227</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.88492826585223</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.88492103676532</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.88491804568038</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.88486382554769</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.88489077978451</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.88488455989109</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.88489034584147</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.88478074558337</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.88479086172138</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.88464712797186</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.88459506103287</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.88459635958803</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.88493859408847</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.8848401822374</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.88484041788143</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.88340222906681</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.88341579442959</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.8834105643244</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.88331629725109</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.88335387179682</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.88334317846867</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.88440387093562</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.88431569417222</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.88429677359269</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.88398580854113</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.88394972273671</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.88393856870949</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.88435287013702</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.88425750858114</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.88425428736875</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.88289712989835</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.88291213410706</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.88290709495829</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.88280089755192</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.88284840060258</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.88283629141102</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.88569883203081</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.88600400818492</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.88608566496379</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.88606506294702</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.88602376598804</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.88601179838512</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.88607675643057</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.88603915385317</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.88591365888657</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.88538267590731</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.88539053721322</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.88538986627352</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.88534016220162</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.88535419147074</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.88531395623038</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.88507857834972</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.88508034142276</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.8851974999302</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.88513278074331</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.88506246828099</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.88504842348298</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.88520002603717</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.88514299236</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.88480278062912</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.88377746630422</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.88381078422118</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.88382031590784</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.88364457569916</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.88373052985004</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.88376174594437</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.88428183334661</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.88438838160712</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.88439684233865</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.88407289734209</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.88414854843645</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.88415257302297</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.88440114761319</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.88444507971645</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.88445143630326</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.88331867305826</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.88335532749431</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.88336065402495</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.88316637605331</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.88326575238906</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.88327620027266</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.88593964465009</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.88596094804083</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.88595999824774</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.88579225523132</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.88581196752598</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.88581525332753</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.88593721904053</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.88595313654048</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.88595573278271</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.88537403282328</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.8853830935177</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.8853829078882</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.88532300215186</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.8853472871244</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.88534706702676</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.88514512279268</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.88517181616182</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.88516495478255</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.88488763541439</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.8849180759174</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.88490580967903</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.88512125243841</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.88513604938111</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.88520216697431</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.88429911254761</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.88430506658872</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.88430482850572</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.88423224627742</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.88424112809911</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.8842328038764</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.88502702716528</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.88500609637249</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.88503882656273</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.88491747995096</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.88483259614393</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.88483583243352</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.8850596108113</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.88500491620051</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.88495399432102</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.88394470166044</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.88394888254458</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.88394964193717</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.88386982086155</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.88387495474978</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.88387192568186</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.88610825490714</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.88602146733272</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.88601087854113</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.88590235149932</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.8859033792202</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.88589678009209</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.88602318003454</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.88602032872924</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.88601621416046</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.88549250269543</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.88550452271926</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.88550221709215</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.88546002531871</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.88547453632127</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.88547138996321</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.88535033195076</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.88529408508996</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.88529106489155</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.88516062537722</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.88512666311203</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.88512585459969</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.88537343585721</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.88532016062729</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.88531721640999</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.88428129446209</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.88429882240596</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.88429413782871</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.88422277941459</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.88424790951268</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.88423928405954</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.88505706666752</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.88498273830266</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.88496658808182</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.88477112458478</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.8847581039757</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.88474799971459</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.88502151891875</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.8849747950467</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.88497019618456</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.8839508527</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.8839754706833</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.88397066555842</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.88389737622137</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.88391819973251</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.88390609722742</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.88479331945543</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.88534767253656</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.88549550446913</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.88548047560722</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.88540961621155</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.8853867124765</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.88548095005377</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.88541590293845</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.88518479750106</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.88432503945139</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.88433909396518</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.88433865604185</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.88425536859302</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.88427986955523</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.88421069214801</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.88382811509601</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.88383488654166</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.88404195794092</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.88396676327668</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.88384209205321</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.88381670458764</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.88404598184515</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.88394459098648</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.88338796512808</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.88177935669484</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.88183098475865</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.88184698372224</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.8815606031391</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.88169032598972</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.88174072708286</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.88248319169076</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.88267180433377</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.88268295791631</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.8821780172303</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.88231675363473</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.88232047050894</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.88271454396291</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.88279595523476</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.8828015902503</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.88100369520339</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.88107084211001</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.88107797624201</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.88074304391774</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.88092523430504</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.88093522488089</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.88468235601079</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.88472205606713</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.88472128624815</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.88437899834533</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.88440440927166</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.88441790268853</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.88469375974908</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.88471415881358</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.8847252103131</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.88353193866985</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.88354652220075</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.88354765579998</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.88343464502451</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.88347368943371</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.88347865883931</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.88296125965406</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.88303549166488</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.88302260241948</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.88235864012289</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.88242752690269</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.88241261670962</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.8828980835277</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.88292711468301</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.8836121394839</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.88212080656401</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.88213265534019</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.88213342897131</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.88199828952923</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.8820088461429</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.881937213543</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.8833329311807</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.8832295726605</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.88337317593959</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.88354817634718</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.88326836618177</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.88324372508558</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.8835207705262</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.88333949107176</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.8831859498109</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.88158841151942</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.88159117762494</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.88158789307836</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.88145834117402</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.88144965516052</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.88135790555958</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.88587919833455</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.88568296575664</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.88566993335805</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.88552370734223</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.88552162061116</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.8855134386946</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.88568523801315</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.88567815979089</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.88567355497614</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.8849821227272</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.88499403426975</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.88499109870884</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.88493495900086</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.88495685830132</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.88495215619391</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.88485876581671</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.88476550630917</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.88476635358803</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.88461741718567</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.88456420781068</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.88456229573222</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.88490317776396</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.88481484679339</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.88481093383051</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.88337786149599</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.88339660613725</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.88339192653308</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.88329399039335</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.88333158740872</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.88332437645856</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.88444656480723</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.88433880589329</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.88431992512975</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.88405535009062</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.88402585286936</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.88401352808478</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.88439960686398</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.88431493890358</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.88431026190901</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.8829598992356</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.88299731274483</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.88299151684663</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.88288948296817</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.88292566869839</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.88290968294876</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.88517031119058</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.88564810070155</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.88577303011941</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.88576893706872</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.88570617308335</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.88568723716309</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.88575858240853</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.88570150756542</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.88550459554534</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.88479215831367</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.8848044620017</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.88480394789972</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.88473327127756</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.88475515293306</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.88469475724274</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.88438283983925</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.88438883348631</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.88456635406568</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.88451490607774</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.88440578656662</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.8843846587119</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.88456751330279</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.88447913827484</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.88398707057071</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.88263823734167</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.88268498752428</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.8826989107508</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.88245226350766</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.88257020671073</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.88261361921452</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.88322670768547</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.88339158954367</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.88340187647836</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.88297108591158</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.88309567806839</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.8830984189058</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.88342125598088</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.88349643881462</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.88350159968486</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.88199922003965</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.88205795383319</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.88206419424063</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.88177804716624</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.8819370700171</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.88194650708352</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.88527606564596</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.88530958816893</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.88530950054005</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.8850517662656</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.8850761173918</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.8850859834764</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.88528715771821</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.8853073008353</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.88531591498592</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.88442403092423</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.88443665968488</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.88443765984316</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.88434839273799</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.88438211701066</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.88438627986816</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.88400052281167</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.88406059176277</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.88404939246936</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.88354653618713</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.88360739830168</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.88359442472491</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.88394940039239</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.88397853168207</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.88447662241157</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.88336730509292</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.88337642892883</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.88337684980959</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.88327425945877</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.88328371277955</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.88322637886714</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.88426784791696</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.88418402314051</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.88430676151394</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.88444706956917</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.88423390028664</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.88421513855052</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.88442008259885</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.88427989816688</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.88413663660604</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.88292419118838</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.88292580672595</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.88292287898209</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.88282567459977</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.88281806899807</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.88274529808238</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.88545107789406</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.88549428156067</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.88548310455798</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.88527592464851</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.88529905682617</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.88529103531157</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.88546425742146</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.88548156051777</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.88547626802321</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.88471132699844</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.88472289028235</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.88471992056115</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.88464539963697</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.88468358125088</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.88467847923742</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.88443612797322</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.88453330937034</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.88454615179469</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.88420866185192</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.88430141315018</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.88431994534709</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.88453481438309</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.88459835505973</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.88435489879839</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.88305211070458</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.88307042154075</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.88306665192917</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.8829332294462</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.88298946173767</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.88298541294428</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.88397461059603</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.88403240203453</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.88401364397973</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.88353358526879</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.8836005374806</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.88360260335122</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.88393298656239</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.88395609428389</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.88396022504375</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.88250434591043</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.88252746983428</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.88252972516488</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.88237803909074</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.88244535961234</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.88245230900191</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.88601239503737</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.88611140447254</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.88610658639762</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.88609431869668</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.88604040101504</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.88603848724165</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.88609661326775</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.88592689528308</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.88592479731306</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.88540011358947</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.88540828383637</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.88540769013766</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.8853574379532</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.88533159447876</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.88533001891535</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.8851041633019</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.88523387581834</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.88522736557071</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.88517558642233</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.88508750177109</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.88508684001472</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.88522891349243</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.88484982232052</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.88486694763028</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.88384196430441</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.88386494122235</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.88387345979389</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.88372830104852</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.88378665312516</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.88388926557569</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.88435457822152</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.88445133032629</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.88464323511871</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.88420971230958</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.88425852135323</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.88425515535355</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.88449959223722</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.88451965507898</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.88460764872474</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.88339602128827</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.8834213632046</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.88343170324031</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.88326699397618</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.88333376631579</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.88279198105639</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.88549567805491</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.8855266402494</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.88555279414663</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.88531516699695</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.8853292177621</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.88533879399679</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.88551125238762</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.88552239367289</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.88552707013705</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.88474345214596</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.88475300120162</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.88475720191202</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.88467579199644</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.88470393780539</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.88479912823676</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.8843815521706</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.88442787343366</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.88442477411081</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.88401976955788</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.88406130596909</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.88404546237151</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.88436082106651</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.88476284124722</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.88475325996978</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.88376272407352</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.88377165836981</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.88377177938683</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.8836787961461</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.88363985131438</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.88364211864258</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.88457554282941</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.88460522302302</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.88459501228939</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.88471037579959</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.88450618305244</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.88450766990688</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.88469872221201</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.8844515441223</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.88444601972111</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.88336594987712</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.88336811251292</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.88336499230698</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.8832774838055</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.88315968434241</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.88289917092663</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.88560222726256</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.88562609327952</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.88562198949702</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.88543435780742</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.88543587864744</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.88543236351343</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.885609503195</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.88560880506528</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.8856000269942</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.88488327665844</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.88488708561778</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.88488245083643</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.88483259674006</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.88484995812827</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.88527213598968</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.88469311828794</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.88474955019385</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.88484981479999</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.88449656015692</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.88454166985536</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.88454337678747</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.88477540454303</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.88459393644337</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.88465941834531</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.88334587656623</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.88335058405683</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.88334731692445</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.88325150988429</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.88327903036772</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.88335842859428</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.88426721098625</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.88429802337156</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.88431464508546</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.88388999317055</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.88391705713802</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.88391539337811</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.88424406850832</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.88424605347262</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.88430471658766</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.88284840573328</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.88285670188039</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.8828517107761</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.88274516524409</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.88278082202234</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.88299010995451</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.88617870680544</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.88614890002762</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.88614474217255</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.88612648848779</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.88608957160877</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.88608704987658</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.88597316461493</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.88595581745332</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.88595274219404</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.88545892641135</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.88546804665804</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.88546742194847</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.88531361326024</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.8853649093489</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.88536327252011</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.88535991923976</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.88530951791189</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.88530388223103</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.88524545048051</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.88518109349402</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.88517880639816</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.88491904399988</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.88499826101276</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.88496642293914</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.88398094498578</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.88400646569459</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.88401067311975</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.88387997195911</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.88398244862357</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.88399745310009</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.8847084347915</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.88471394653259</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.88471639610165</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.88422708507095</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.88430183039792</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.88430493473265</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.88482968574919</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.88473629677806</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.88472140951455</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.88356037514862</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.88358130823956</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.88358489604805</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.88280099485772</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.88284579147865</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.88285817044467</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.88606262122707</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.88606369053688</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.8860638312905</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.88592102965252</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.88592786947055</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.88592920774187</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.88605917968173</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.88604905535297</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.88605106203685</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.88553497051858</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.8855383289397</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.88553821014845</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.88554199872919</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.88555960399557</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.88556112482604</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.88534801537108</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.88534174227871</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.88533964168469</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.88511070504949</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.88512109184087</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.88517352328621</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.88540053783137</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.88538373790679</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.8853820825712</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.88457640841342</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.88458234542085</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.88457839568343</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.88450061356872</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.88452400479721</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.88452402040826</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.88521338763915</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.88517642400975</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.88517002153041</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.88501996542225</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.88496899960458</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.8849992081668</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.88525228217436</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.88521993958335</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.88521781081533</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.88439140072832</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.88439757680075</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.8843960449863</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.88430008122879</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.88409359551285</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.88408803589207</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.88647011331137</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.88646754889747</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.88646876387924</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.88639105788787</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.88638967906473</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.8863914017023</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.88646538311951</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.88646370234499</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.88646313580181</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.88615452895589</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.88615535435085</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.88615523289855</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.88613224089885</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.88620326404067</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.88620343550553</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.88606082332068</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.88608125371286</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.88607971543951</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.8859520894057</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.88594396436115</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.88594794320128</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.88606955104196</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.88608209187733</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.88607917023178</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.88557915543729</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.88558140674487</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.88558056209205</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.88554146297183</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.88550151465651</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.8855044259913</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.88588785667806</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.88590661800653</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.88590485387866</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.88574946844863</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.88574604048474</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.8857507366674</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.88588912781788</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.88591876922075</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.88591399486806</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.88529433856923</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.88529662486583</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.8852960281444</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.88525135139826</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.88544753296397</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.88544720986674</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.88604639162302</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.88603839958375</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.88603585209089</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.88592542498188</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.88591206524786</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.88590072204956</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.88601777098205</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.88601802796745</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.88601761218377</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.88550360697877</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.88551007018251</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.88550976259483</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.88548588491157</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.88548819880804</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.88548784020706</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.88526431616614</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.88525257189909</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.88525177049805</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.88498362085377</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.8850215293689</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.88501360466472</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.88525719101755</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.88522396084917</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.88521737147395</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.88429748702644</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.88435169401511</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.88435396679613</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.88426929806009</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.88429184620059</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.88428897392704</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.88500486002218</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.88495138009403</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.88495067783397</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.8846725129521</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.88472251799331</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.88471690407697</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.88499631601332</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.88495924701365</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.8849566740898</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.8838719202037</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.88365149387646</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.883650964327</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.88356183613729</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.88357555329592</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.8835773285019</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.88595221942077</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.88595135492472</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.88595161282238</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.88578907385132</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.88580062745722</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.8858048998802</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.88595121359219</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.88593295592853</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.88593500863808</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.88535563916206</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.88545125763103</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.88544935474286</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.88539644751473</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.8854181660316</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.88541684552492</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.88518370516509</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.88515908935238</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.88514982590429</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.88493572618431</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.88489302412651</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.88489262112029</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.88518095291708</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.88515276072726</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.885153480852</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.88420762411358</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.88422269218482</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.88422372787284</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.88415945186993</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.88415728572187</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.88415618658052</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.88503317419727</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.88497770203014</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.88497720317644</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.88472914406763</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.88463718709858</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.88464125056422</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.88498322702413</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.88492753691161</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.88493326441771</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.88392331936976</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.88394281190486</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.88388898129549</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.88378777272733</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.88382028658953</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.88381331253751</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.88647185411748</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.8864697815699</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.88647235987488</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.88639354765781</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.88639224617609</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.88639436417916</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.88646806608015</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.88646602284384</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.88646601268259</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.8861582936603</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.88615873815855</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.88623152410574</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.88620609569658</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.88621210166614</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.88621221480827</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.88609604569647</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.88608806997188</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.88608140990599</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.88596019738839</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.8859579750709</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.8859695250056</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.88609433234172</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.88608585992118</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.88608143218573</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.88558874878541</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.88558954180058</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.88554582660722</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.88550441281717</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.88550887179954</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.88551170138447</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.88591780890187</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.88591146485167</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.88590217409708</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.88575398899231</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.88575068956211</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.88578328653878</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.88593155776054</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.88592294337067</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.8859192350073</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.88530275572813</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.8853029545418</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.88550753959392</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.88547552484805</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.88547611510779</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.88547562134179</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.88600919329467</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.88599241914565</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>29.88599234958808</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.88580226079679</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.88579295051574</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.8857921202102</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.88592820299977</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.88592163925519</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.88592263337592</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.88535700982126</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>29.88536802202521</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.88536728182714</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.88536104652244</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.8853638935832</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.88536332051817</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.88515056271645</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.88512303213486</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.88512238009282</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.88474492301767</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.88484041015019</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.88482278404391</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.88509666854758</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.88503160813406</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.88501887979472</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>29.88402099765994</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.88407823577533</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.88408085498613</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.88396538422002</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.88401481612383</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.88401220377761</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.88478382940554</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.88470295085958</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.88470472617595</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.88437814084065</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.88449155666245</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.88448044936334</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.88479610721404</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.8847270552061</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.88472195630544</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.88352565044923</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.88333089325545</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>29.88333099882382</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.88321737698274</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.88326162614507</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>29.88325880852232</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.88587995281728</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.88588338725171</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.88588420956123</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.8857037031029</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.88572075108583</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.88572557340381</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.88588287678861</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.88586461578923</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.88586575026197</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.8852454531642</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.88539477524645</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.88539409056447</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.88533666756978</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.88536395621123</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.88536408289249</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.88511159930529</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.88509484266219</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.88508152122672</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.88479577623979</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.88475035811104</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.8847458577213</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.88506638349459</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.88503212012917</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.88502838849993</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.88400097751931</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.88401667471121</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.88401831981566</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.88395590979341</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.88394830071948</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.88394713248207</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.88497320775997</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.88490455927786</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.88489916222523</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.8845199037498</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.88441268056064</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.88440635967162</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.88481048996902</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.88473404111243</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.88473205943576</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.88358179276936</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.88360257297761</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.88381469929504</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.88369992901062</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>29.8837432129625</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.88374259513495</v>
+        <v>29.88706684734587</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.198</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.114</v>
+        <v>21.775</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.017</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.612</v>
+        <v>22.512</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.443</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.078</v>
+        <v>20.388</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.88706684734587</v>
+        <v>-12.53745922884045</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.88706684734587</v>
+        <v>25.91041938666561</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.88706684734587</v>
+        <v>31.36116440517074</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.88706684734587</v>
+        <v>3.488252723989742</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.88706684734587</v>
+        <v>13.30230376893601</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.88706684734587</v>
+        <v>17.54957751314342</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.88706684734587</v>
+        <v>16.47370692335064</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.88706684734587</v>
+        <v>19.51589571225488</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.88706684734587</v>
+        <v>22.50169443006328</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.88706684734587</v>
+        <v>28.4997121110205</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.88706684734587</v>
+        <v>35.55402484789411</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.88706684734587</v>
+        <v>37.927166131679</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.88706684734587</v>
+        <v>12.98584831874066</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.88706684734587</v>
+        <v>29.52312172972122</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.88706684734587</v>
+        <v>34.02757732476633</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.88706684734587</v>
+        <v>-7.265827189108993</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.88706684734587</v>
+        <v>31.18619041013565</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.88706684734587</v>
+        <v>36.63824930958393</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.88706684734587</v>
+        <v>8.758921105678407</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.88706684734587</v>
+        <v>18.57588992250251</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.88706684734587</v>
+        <v>22.82410365925946</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.88706684734587</v>
+        <v>21.74780126540125</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.88706684734587</v>
+        <v>24.79201766116003</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.88706684734587</v>
+        <v>27.778561108545</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.88706684734587</v>
+        <v>33.77898611999902</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.88706684734587</v>
+        <v>40.83498630659201</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.88706684734587</v>
+        <v>43.20859978924719</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.88706684734587</v>
+        <v>18.26356578654238</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.88706684734587</v>
+        <v>34.80403336916336</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.88706684734587</v>
+        <v>39.30956851892486</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.88706684734587</v>
+        <v>0.07112264724881001</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.88706684734587</v>
+        <v>38.52306660127263</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.88706684734587</v>
+        <v>43.97553546410703</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.88706684734587</v>
+        <v>16.09709389097341</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.88706684734587</v>
+        <v>25.91433498037204</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.88706684734587</v>
+        <v>30.16298320362275</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.88706684734587</v>
+        <v>29.08667232650989</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.88706684734587</v>
+        <v>32.13122512304281</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.88706684734587</v>
+        <v>35.11812476954574</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.88706684734587</v>
+        <v>41.11971999022697</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.88706684734587</v>
+        <v>48.17586346882379</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.88706684734587</v>
+        <v>50.54966644151526</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.88706684734587</v>
+        <v>25.60409437285923</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.88706684734587</v>
+        <v>42.14478985145357</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.88706684734587</v>
+        <v>46.6507668968699</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.88706684734587</v>
+        <v>-11.15061974708792</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.88706684734587</v>
+        <v>27.29805342547209</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.88706684734587</v>
+        <v>32.74850219116618</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.88706684734587</v>
+        <v>4.875401312958754</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.88706684734587</v>
+        <v>14.69012489899731</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.88706684734587</v>
+        <v>18.93718830621904</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.88706684734587</v>
+        <v>17.86089990892836</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.88706684734587</v>
+        <v>20.90371201276664</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.88706684734587</v>
+        <v>23.88933449590902</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.88706684734587</v>
+        <v>29.8870809930452</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.88706684734587</v>
+        <v>36.94163568088371</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.88706684734587</v>
+        <v>39.31461629874994</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.88706684734587</v>
+        <v>14.37261614907063</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.88706684734587</v>
+        <v>30.91065360254211</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.88706684734587</v>
+        <v>35.41486146381422</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.88706684734587</v>
+        <v>-5.879586977080269</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.88706684734587</v>
+        <v>32.57322521618531</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.88706684734587</v>
+        <v>38.02498776829535</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.88706684734587</v>
+        <v>10.14547059340205</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.88706684734587</v>
+        <v>19.9631119401254</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.88706684734587</v>
+        <v>24.21111526863731</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.88706684734587</v>
+        <v>23.13439511512595</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.88706684734587</v>
+        <v>26.17923481776293</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.88706684734587</v>
+        <v>29.16560196717628</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.88706684734587</v>
+        <v>35.1657558497914</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.88706684734587</v>
+        <v>42.2219979774857</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.88706684734587</v>
+        <v>44.59545074341352</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.88706684734587</v>
+        <v>19.64973454372014</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.88706684734587</v>
+        <v>36.19096617243625</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.88706684734587</v>
+        <v>40.69625350511527</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.88706684734587</v>
+        <v>1.457903488563286</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.88706684734587</v>
+        <v>39.9106420286503</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.88706684734587</v>
+        <v>45.36281454282519</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.88706684734587</v>
+        <v>17.4841839221888</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.88706684734587</v>
+        <v>27.30209753752265</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.88706684734587</v>
+        <v>31.55053536339974</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.88706684734587</v>
+        <v>30.47380678454968</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.88706684734587</v>
+        <v>33.51898288007672</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.88706684734587</v>
+        <v>36.5057062393544</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.88706684734587</v>
+        <v>42.50703028451633</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.88706684734587</v>
+        <v>49.56341570457826</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.88706684734587</v>
+        <v>51.93705797066119</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.88706684734587</v>
+        <v>26.99080369649507</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.88706684734587</v>
+        <v>43.53226321360412</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.88706684734587</v>
+        <v>48.03799245057658</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.88706684734587</v>
+        <v>-11.81728836011903</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.88706684734587</v>
+        <v>26.63140338300789</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.88706684734587</v>
+        <v>32.08180693174384</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.88706684734587</v>
+        <v>4.20869395730281</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.88706684734587</v>
+        <v>14.0234028308362</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.88706684734587</v>
+        <v>18.27043845947562</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.88706684734587</v>
+        <v>17.19419654254332</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.88706684734587</v>
+        <v>20.23699045751769</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.88706684734587</v>
+        <v>23.22258465109726</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.88706684734587</v>
+        <v>29.22044655686957</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.88706684734587</v>
+        <v>36.27500009814585</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.88706684734587</v>
+        <v>38.64795329013296</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.88706684734587</v>
+        <v>13.70600937388829</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.88706684734587</v>
+        <v>30.24403873375516</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.88706684734587</v>
+        <v>34.74820940131329</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.88706684734587</v>
+        <v>-6.545628273437817</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.88706684734587</v>
+        <v>31.90720251112944</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.88706684734587</v>
+        <v>37.35891984151831</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.88706684734587</v>
+        <v>9.479390579125972</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.88706684734587</v>
+        <v>19.29701722427935</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.88706684734587</v>
+        <v>23.54499277253253</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.88706684734587</v>
+        <v>22.46831911014649</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.88706684734587</v>
+        <v>25.51314063295049</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.88706684734587</v>
+        <v>28.49947949086654</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.88706684734587</v>
+        <v>34.49974874575904</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.88706684734587</v>
+        <v>41.55598973241277</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.88706684734587</v>
+        <v>43.9294150681732</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.88706684734587</v>
+        <v>18.98375508557185</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.88706684734587</v>
+        <v>35.52497863519957</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.88706684734587</v>
+        <v>40.03022877099457</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.88706684734587</v>
+        <v>0.7918638150709079</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.88706684734587</v>
+        <v>39.24462095196978</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.88706684734587</v>
+        <v>44.6967482422555</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.88706684734587</v>
+        <v>16.81810552965706</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.88706684734587</v>
+        <v>26.63600444522652</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.88706684734587</v>
+        <v>30.88441449444306</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.88706684734587</v>
+        <v>29.80773240138413</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.88706684734587</v>
+        <v>32.85289031901951</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.88706684734587</v>
+        <v>35.8395853900054</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.88706684734587</v>
+        <v>41.84102479661786</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.88706684734587</v>
+        <v>48.89740907650824</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.88706684734587</v>
+        <v>51.27102391480551</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.88706684734587</v>
+        <v>26.32482584759921</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.88706684734587</v>
+        <v>42.86627728870738</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.88706684734587</v>
+        <v>47.37196933111412</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.88706684734587</v>
+        <v>-17.82226730489512</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.88706684734587</v>
+        <v>20.62533670077974</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.88706684734587</v>
+        <v>26.0759637189316</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.88706684734587</v>
+        <v>-1.796941017106722</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.88706684734587</v>
+        <v>8.016923710065182</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.88706684734587</v>
+        <v>12.26409148115388</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.88706684734587</v>
+        <v>11.18826319085681</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.88706684734587</v>
+        <v>14.23030329821827</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.88706684734587</v>
+        <v>17.21601186083185</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.88706684734587</v>
+        <v>23.21413396460801</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.88706684734587</v>
+        <v>30.26837063524888</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.88706684734587</v>
+        <v>32.64147265242471</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.88706684734587</v>
+        <v>7.700526402896255</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.88706684734587</v>
+        <v>24.2375830030559</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.88706684734587</v>
+        <v>28.74192438076002</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.88706684734587</v>
+        <v>-12.55106574259364</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.88706684734587</v>
+        <v>25.90067720698962</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.88706684734587</v>
+        <v>31.35261809460999</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.88706684734587</v>
+        <v>3.473296887010545</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.88706684734587</v>
+        <v>13.29007935053167</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.88706684734587</v>
+        <v>17.53818710161729</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.88706684734587</v>
+        <v>16.46192701419661</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.88706684734587</v>
+        <v>19.50599470032241</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.88706684734587</v>
+        <v>22.49244797954023</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.88706684734587</v>
+        <v>28.49297742438241</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.88706684734587</v>
+        <v>35.54890152801752</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.88706684734587</v>
+        <v>37.9224757373502</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.88706684734587</v>
+        <v>12.97781334365621</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.88706684734587</v>
+        <v>29.51806407799486</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.88706684734587</v>
+        <v>34.02348499654195</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.88706684734587</v>
+        <v>-5.21365786487522</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.88706684734587</v>
+        <v>33.2380114569377</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.88706684734587</v>
+        <v>38.69036230194925</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.88706684734587</v>
+        <v>10.81192772008151</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.88706684734587</v>
+        <v>20.62898247149567</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.88706684734587</v>
+        <v>24.87752470016815</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.88706684734587</v>
+        <v>23.8012561445087</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.88706684734587</v>
+        <v>26.8456602430239</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.88706684734587</v>
+        <v>29.83246971174972</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.88706684734587</v>
+        <v>35.83416934169489</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.88706684734587</v>
+        <v>42.89023674526121</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.88706684734587</v>
+        <v>45.26400044285052</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.88706684734587</v>
+        <v>20.31879996535397</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.88706684734587</v>
+        <v>36.85927861151245</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.88706684734587</v>
+        <v>41.36514141621151</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.88706684734587</v>
+        <v>-8.421845171154562</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.88706684734587</v>
+        <v>30.02616011012972</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.88706684734587</v>
+        <v>35.47678818613352</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.88706684734587</v>
+        <v>7.604052389080632</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.88706684734587</v>
+        <v>17.41831516796233</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.88706684734587</v>
+        <v>21.6654784666147</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.88706684734587</v>
+        <v>20.58965353157512</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.88706684734587</v>
+        <v>23.63205270594338</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.88706684734587</v>
+        <v>26.61775421200857</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.88706684734587</v>
+        <v>32.61567704148868</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.88706684734587</v>
+        <v>39.67006607293334</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.88706684734587</v>
+        <v>42.04315620129015</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.88706684734587</v>
+        <v>17.10161417016459</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.88706684734587</v>
+        <v>33.63909762549045</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.88706684734587</v>
+        <v>38.14343399009115</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.88706684734587</v>
+        <v>-3.149123775061842</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.88706684734587</v>
+        <v>35.3030204757238</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.88706684734587</v>
+        <v>40.75496240251735</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.88706684734587</v>
+        <v>12.87581022005363</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.88706684734587</v>
+        <v>22.69299075880056</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.88706684734587</v>
+        <v>26.94109401580911</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.88706684734587</v>
+        <v>25.8648373388153</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.88706684734587</v>
+        <v>28.90926411180899</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.88706684734587</v>
+        <v>31.89571031646429</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.88706684734587</v>
+        <v>37.89604047539891</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.88706684734587</v>
+        <v>44.95211694632931</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.88706684734587</v>
+        <v>47.32567925773847</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.88706684734587</v>
+        <v>22.38042106168293</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.88706684734587</v>
+        <v>38.92109867616003</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.88706684734587</v>
+        <v>43.4265145600323</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.88706684734587</v>
+        <v>4.187387396123338</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.88706684734587</v>
+        <v>42.63945798645412</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.88706684734587</v>
+        <v>48.09180988232904</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.88706684734587</v>
+        <v>20.21354428968268</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.88706684734587</v>
+        <v>30.03099709611106</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.88706684734587</v>
+        <v>34.27953483995898</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.88706684734587</v>
+        <v>33.20326967399527</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.88706684734587</v>
+        <v>36.24803284347573</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.88706684734587</v>
+        <v>39.23483524398753</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.88706684734587</v>
+        <v>45.23633560953002</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.88706684734587</v>
+        <v>52.29255537495627</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.88706684734587</v>
+        <v>54.66630717748947</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.88706684734587</v>
+        <v>29.72051092801919</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.88706684734587</v>
+        <v>46.26141643034603</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.88706684734587</v>
+        <v>50.76727420978582</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.88706684734587</v>
+        <v>-6.67263658245199</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.88706684734587</v>
+        <v>31.77439843364712</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.88706684734587</v>
+        <v>37.22457008489735</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.88706684734587</v>
+        <v>9.352988556847574</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.88706684734587</v>
+        <v>19.16734491559876</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.88706684734587</v>
+        <v>23.41415989364353</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.88706684734587</v>
+        <v>22.33811998842728</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.88706684734587</v>
+        <v>25.38086404029834</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.88706684734587</v>
+        <v>28.36629288593829</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.88706684734587</v>
+        <v>34.36381655610674</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.88706684734587</v>
+        <v>41.41809937859355</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.88706684734587</v>
+        <v>43.79096320478678</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.88706684734587</v>
+        <v>18.84989764438185</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.88706684734587</v>
+        <v>35.38727872955863</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.88706684734587</v>
+        <v>39.89122720719755</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.88706684734587</v>
+        <v>-1.399166116744116</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.88706684734587</v>
+        <v>37.05200775495635</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.88706684734587</v>
+        <v>42.50349312862434</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.88706684734587</v>
+        <v>14.62549566854934</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.88706684734587</v>
+        <v>24.44276968754141</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.88706684734587</v>
+        <v>28.69052452399731</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.88706684734587</v>
+        <v>27.61405297214881</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.88706684734587</v>
+        <v>30.65882455784847</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.88706684734587</v>
+        <v>33.64499801772197</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.88706684734587</v>
+        <v>39.64492894962089</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.88706684734587</v>
+        <v>46.70089914914095</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.88706684734587</v>
+        <v>49.07423509815979</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.88706684734587</v>
+        <v>24.12945359517837</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.88706684734587</v>
+        <v>40.67002874108553</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.88706684734587</v>
+        <v>45.17505662458794</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.88706684734587</v>
+        <v>5.937354472400809</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.88706684734587</v>
+        <v>44.38845467167656</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.88706684734587</v>
+        <v>49.8403500033933</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.88706684734587</v>
+        <v>21.96323902282395</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.88706684734587</v>
+        <v>31.7807852896922</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.88706684734587</v>
+        <v>36.02897460567104</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.88706684734587</v>
+        <v>34.9524946137324</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.88706684734587</v>
+        <v>37.99760256939217</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.88706684734587</v>
+        <v>40.98413222112677</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.88706684734587</v>
+        <v>46.98523328189097</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.88706684734587</v>
+        <v>54.04134676661673</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.88706684734587</v>
+        <v>56.41487220793445</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.88706684734587</v>
+        <v>31.46955267665819</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.88706684734587</v>
+        <v>48.01035568739022</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.88706684734587</v>
+        <v>52.51582545911756</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.88706684734587</v>
+        <v>-15.22660498484172</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.88706684734587</v>
+        <v>23.22017911148808</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.88706684734587</v>
+        <v>28.67059395538606</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.88706684734587</v>
+        <v>0.7984946455087787</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.88706684734587</v>
+        <v>10.61235558080628</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.88706684734587</v>
+        <v>14.85941991543907</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.88706684734587</v>
+        <v>13.78340333307213</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.88706684734587</v>
+        <v>16.82564301796972</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.88706684734587</v>
+        <v>19.81129506720461</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.88706684734587</v>
+        <v>25.80908063633686</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.88706684734587</v>
+        <v>32.86318988270935</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.88706684734587</v>
+        <v>35.23615625334244</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.88706684734587</v>
+        <v>10.29564477047213</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.88706684734587</v>
+        <v>26.83254206308268</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.88706684734587</v>
+        <v>31.33675494971251</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.88706684734587</v>
+        <v>-9.955007333570709</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.88706684734587</v>
+        <v>28.49591567413975</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.88706684734587</v>
+        <v>33.94764431871207</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.88706684734587</v>
+        <v>6.069128753476914</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.88706684734587</v>
+        <v>15.88590738839823</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.88706684734587</v>
+        <v>20.13391167080183</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.88706684734587</v>
+        <v>19.05746329414981</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.88706684734587</v>
+        <v>22.10173054079021</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.88706684734587</v>
+        <v>25.08812728749197</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.88706684734587</v>
+        <v>31.08832007841331</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.88706684734587</v>
+        <v>38.14411672658278</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.88706684734587</v>
+        <v>40.51755525979732</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.88706684734587</v>
+        <v>15.57332774275713</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.88706684734587</v>
+        <v>32.11341913959737</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.88706684734587</v>
+        <v>36.61871152561221</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.88706684734587</v>
+        <v>-2.617478693102019</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.88706684734587</v>
+        <v>35.83337068324207</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.88706684734587</v>
+        <v>41.28550926400979</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.88706684734587</v>
+        <v>13.40788025984014</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.88706684734587</v>
+        <v>23.22493116078934</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.88706684734587</v>
+        <v>27.4733699157455</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.88706684734587</v>
+        <v>26.39691311377899</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.88706684734587</v>
+        <v>29.44151674679224</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.88706684734587</v>
+        <v>32.4282696874906</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.88706684734587</v>
+        <v>38.42963260520176</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.88706684734587</v>
+        <v>45.4855725355574</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.88706684734587</v>
+        <v>47.85920055441332</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.88706684734587</v>
+        <v>22.91443497070125</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.88706684734587</v>
+        <v>39.4547542586362</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.88706684734587</v>
+        <v>43.96048852499976</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.88706684734587</v>
+        <v>-13.0270609584355</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.88706684734587</v>
+        <v>25.42111496078578</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.88706684734587</v>
+        <v>30.87175299339142</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.88706684734587</v>
+        <v>2.998731352167194</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.88706684734587</v>
+        <v>12.81297724631363</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.88706684734587</v>
+        <v>17.06015262592214</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.88706684734587</v>
+        <v>15.98422684119398</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.88706684734587</v>
+        <v>19.02657850434209</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.88706684734587</v>
+        <v>22.01228653032333</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.88706684734587</v>
+        <v>28.01034022697834</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.88706684734587</v>
+        <v>35.0647509798886</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.88706684734587</v>
+        <v>37.43784793986416</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.88706684734587</v>
+        <v>12.49630185659728</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.88706684734587</v>
+        <v>29.03380969022819</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.88706684734587</v>
+        <v>33.53815616140255</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.88706684734587</v>
+        <v>-7.75519048324961</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.88706684734587</v>
+        <v>30.69712441979496</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.88706684734587</v>
+        <v>36.14907631007341</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.88706684734587</v>
+        <v>8.269638227072644</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.88706684734587</v>
+        <v>18.08680188601491</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.88706684734587</v>
+        <v>22.33491723155819</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.88706684734587</v>
+        <v>21.25855968252338</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.88706684734587</v>
+        <v>24.30293894619674</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.88706684734587</v>
+        <v>27.28939167513456</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.88706684734587</v>
+        <v>33.28985273605488</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.88706684734587</v>
+        <v>40.34595093587487</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.88706684734587</v>
+        <v>42.71952008067788</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.88706684734587</v>
+        <v>17.77425783388915</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.88706684734587</v>
+        <v>34.31495983328196</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.88706684734587</v>
+        <v>38.82038583069166</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.88706684734587</v>
+        <v>-0.4182436414938344</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.88706684734587</v>
+        <v>38.03399761089068</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.88706684734587</v>
+        <v>43.48635947110134</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.88706684734587</v>
+        <v>15.60780799091779</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.88706684734587</v>
+        <v>25.42524392616658</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.88706684734587</v>
+        <v>29.67379376062788</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.88706684734587</v>
+        <v>28.59742773265409</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.88706684734587</v>
+        <v>31.64214340007825</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.88706684734587</v>
+        <v>34.62895232732618</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.88706684734587</v>
+        <v>40.63058358864535</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.88706684734587</v>
+        <v>47.68682508594091</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.88706684734587</v>
+        <v>50.0605837239564</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.88706684734587</v>
+        <v>25.11478340745819</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.88706684734587</v>
+        <v>41.65571330420656</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.88706684734587</v>
+        <v>46.16158119943751</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.88706684734587</v>
+        <v>-0.728385801988086</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.88706684734587</v>
+        <v>37.71968336325054</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.88706684734587</v>
+        <v>43.17004635906451</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.88706684734587</v>
+        <v>15.29813981459031</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.88706684734587</v>
+        <v>25.11285609027803</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.88706684734587</v>
+        <v>29.35987380185136</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.88706684734587</v>
+        <v>28.2837600828507</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.88706684734587</v>
+        <v>31.32670113543898</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.88706684734587</v>
+        <v>34.31228890961555</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.88706684734587</v>
+        <v>40.30990033526635</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.88706684734587</v>
+        <v>47.36438098357169</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.88706684734587</v>
+        <v>49.73730868910619</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.88706684734587</v>
+        <v>24.79549869120549</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.88706684734587</v>
+        <v>41.33341034621722</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.88706684734587</v>
+        <v>45.83755916494889</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.88706684734587</v>
+        <v>4.542530733582023</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.88706684734587</v>
+        <v>42.99473883323779</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.88706684734587</v>
+        <v>48.4464155721644</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.88706684734587</v>
+        <v>20.56809281939607</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.88706684734587</v>
+        <v>30.38572680716757</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.88706684734587</v>
+        <v>34.63368439996762</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.88706684734587</v>
+        <v>33.55713896820092</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.88706684734587</v>
+        <v>36.60210758743372</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.88706684734587</v>
+        <v>39.58843999671197</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.88706684734587</v>
+        <v>45.58845876807257</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.88706684734587</v>
+        <v>52.64462682960973</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.88706684734587</v>
+        <v>55.0180266650207</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.88706684734587</v>
+        <v>30.07250069123031</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.88706684734587</v>
+        <v>46.61360646358347</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.88706684734587</v>
+        <v>51.1188347120258</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.88706684734587</v>
+        <v>11.87912384915606</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.88706684734587</v>
+        <v>50.33125827105519</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.88706684734587</v>
+        <v>55.78334496735911</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.88706684734587</v>
+        <v>27.9059087374292</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.88706684734587</v>
+        <v>37.72381496939468</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.88706684734587</v>
+        <v>41.97220705059661</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.88706684734587</v>
+        <v>40.89565318055705</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.88706684734587</v>
+        <v>43.94095816864515</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.88706684734587</v>
+        <v>46.92764677974779</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.88706684734587</v>
+        <v>52.92883571845417</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.88706684734587</v>
+        <v>59.98514706079075</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.88706684734587</v>
+        <v>62.35873639080754</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.88706684734587</v>
+        <v>37.41267238374147</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.88706684734587</v>
+        <v>53.95400601729196</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.88706684734587</v>
+        <v>58.45967616147644</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.88706684734587</v>
+        <v>-18.32116926459489</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.88706684734587</v>
+        <v>20.12536605765095</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.88706684734587</v>
+        <v>25.57566914218173</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.88706684734587</v>
+        <v>-2.296745728738049</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.88706684734587</v>
+        <v>7.517219492609708</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.88706684734587</v>
+        <v>11.76416588995997</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.88706684734587</v>
+        <v>10.6879176808782</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.88706684734587</v>
+        <v>13.73030328626842</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.88706684734587</v>
+        <v>16.71586482009084</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.88706684734587</v>
+        <v>22.71340748566265</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.88706684734587</v>
+        <v>29.76751868854447</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.88706684734587</v>
+        <v>32.14043573211123</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.88706684734587</v>
+        <v>7.199963507996269</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.88706684734587</v>
+        <v>23.73688652727995</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.88706684734587</v>
+        <v>28.24098311921082</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.88706684734587</v>
+        <v>-13.04945236458454</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.88706684734587</v>
+        <v>25.40122183002805</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.88706684734587</v>
+        <v>30.85283870407366</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.88706684734587</v>
+        <v>2.974007712718983</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.88706684734587</v>
+        <v>12.79089059857906</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.88706684734587</v>
+        <v>17.03877694470966</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.88706684734587</v>
+        <v>15.96209691945412</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.88706684734587</v>
+        <v>19.00651006505577</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.88706684734587</v>
+        <v>21.99281629575139</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.88706684734587</v>
+        <v>27.9927661506945</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.88706684734587</v>
+        <v>35.04856473384771</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.88706684734587</v>
+        <v>37.42195393382454</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.88706684734587</v>
+        <v>12.47776573104559</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.88706684734587</v>
+        <v>29.01788282126679</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.88706684734587</v>
+        <v>33.5230589086448</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.88706684734587</v>
+        <v>-5.712029442194169</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.88706684734587</v>
+        <v>32.7385711226523</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.88706684734587</v>
+        <v>38.19059793049772</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.88706684734587</v>
+        <v>10.31265349337334</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.88706684734587</v>
+        <v>20.12980864257011</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.88706684734587</v>
+        <v>24.37812946661475</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.88706684734587</v>
+        <v>23.30144100539612</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.88706684734587</v>
+        <v>26.34619053557074</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.88706684734587</v>
+        <v>29.33285296618081</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.88706684734587</v>
+        <v>35.33397292422231</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.88706684734587</v>
+        <v>42.38991478838423</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.88706684734587</v>
+        <v>44.76349347834778</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.88706684734587</v>
+        <v>19.8187672136535</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.88706684734587</v>
+        <v>36.35911219345533</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.88706684734587</v>
+        <v>40.86473016532184</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.88706684734587</v>
+        <v>-11.52640258873962</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.88706684734587</v>
+        <v>26.92128313512549</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.88706684734587</v>
+        <v>32.37149959011859</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.88706684734587</v>
+        <v>4.49888913294242</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.88706684734587</v>
+        <v>14.31335054994033</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.88706684734587</v>
+        <v>18.5601863132446</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.88706684734587</v>
+        <v>17.48404918987105</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.88706684734587</v>
+        <v>20.52676612646874</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.88706684734587</v>
+        <v>23.5122062390873</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.88706684734587</v>
+        <v>29.50975240053438</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.88706684734587</v>
+        <v>36.56413811648636</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.88706684734587</v>
+        <v>38.93702348467687</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.88706684734587</v>
+        <v>13.99562591617862</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.88706684734587</v>
+        <v>30.53322770702041</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.88706684734587</v>
+        <v>35.03720254621729</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.88706684734587</v>
+        <v>-6.253306042150346</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.88706684734587</v>
+        <v>32.19851862446515</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.88706684734587</v>
+        <v>37.65004883987197</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.88706684734587</v>
+        <v>9.77102234828865</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.88706684734587</v>
+        <v>19.58840146595051</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.88706684734587</v>
+        <v>23.83617713446668</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.88706684734587</v>
+        <v>22.75960829309158</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.88706684734587</v>
+        <v>25.80435279091298</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.88706684734587</v>
+        <v>28.79053755566101</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.88706684734587</v>
+        <v>34.79049099794477</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.88706684734587</v>
+        <v>41.84656411733684</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.88706684734587</v>
+        <v>44.21992162315249</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.88706684734587</v>
+        <v>19.27480805953112</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.88706684734587</v>
+        <v>35.81560396404032</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.88706684734587</v>
+        <v>40.32065825409543</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.88706684734587</v>
+        <v>1.083856484472133</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.88706684734587</v>
+        <v>39.53560750462978</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.88706684734587</v>
+        <v>44.98754767436051</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.88706684734587</v>
+        <v>17.10940768056232</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.88706684734587</v>
+        <v>26.92705906574636</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.88706684734587</v>
+        <v>31.17526922312961</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.88706684734587</v>
+        <v>30.09869195215608</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.88706684734587</v>
+        <v>33.14377283953255</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.88706684734587</v>
+        <v>36.13031380602061</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.88706684734587</v>
+        <v>42.13143736638679</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.88706684734587</v>
+        <v>49.18765377846185</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.88706684734587</v>
+        <v>51.56120078336463</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.88706684734587</v>
+        <v>26.61554915482546</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.88706684734587</v>
+        <v>43.15657294795929</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.88706684734587</v>
+        <v>47.66206913332931</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.88706684734587</v>
+        <v>-18.39386799448753</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.88706684734587</v>
+        <v>20.05340052602449</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.88706684734587</v>
+        <v>25.50365684289593</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.88706684734587</v>
+        <v>-2.369037636868459</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.88706684734587</v>
+        <v>7.445055459114112</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.88706684734587</v>
+        <v>11.69197052835275</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.88706684734587</v>
+        <v>10.61585911228874</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.88706684734587</v>
+        <v>13.65825438533218</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.88706684734587</v>
+        <v>16.64376801627534</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.88706684734587</v>
+        <v>22.64153210182488</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.88706684734587</v>
+        <v>29.69574667883958</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.88706684734587</v>
+        <v>32.06865002689952</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.88706684734587</v>
+        <v>7.127904275856761</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.88706684734587</v>
+        <v>23.6651007820665</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.88706684734587</v>
+        <v>28.16914885835379</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.88706684734587</v>
+        <v>-13.12311465568448</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.88706684734587</v>
+        <v>25.32829279040314</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.88706684734587</v>
+        <v>30.77986287984939</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.88706684734587</v>
+        <v>2.900752205255483</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.88706684734587</v>
+        <v>12.71776298511852</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.88706684734587</v>
+        <v>16.96561798066775</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.88706684734587</v>
+        <v>15.88907477187129</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.88706684734587</v>
+        <v>18.93349759136063</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.88706684734587</v>
+        <v>21.91975589489075</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.88706684734587</v>
+        <v>27.9199272445542</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.88706684734587</v>
+        <v>34.97582921783604</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.88706684734587</v>
+        <v>37.34920471149078</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.88706684734587</v>
+        <v>12.4047429850041</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.88706684734587</v>
+        <v>28.94513358737541</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.88706684734587</v>
+        <v>33.45026113498253</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.88706684734587</v>
+        <v>-5.784972505792755</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.88706684734587</v>
+        <v>32.66636132765055</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.88706684734587</v>
+        <v>38.11834135254597</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.88706684734587</v>
+        <v>10.24011722177991</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.88706684734587</v>
+        <v>20.05740028622315</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.88706684734587</v>
+        <v>24.30568975852978</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.88706684734587</v>
+        <v>23.22913814726715</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.88706684734587</v>
+        <v>26.27389736879914</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.88706684734587</v>
+        <v>29.26051186750524</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.88706684734587</v>
+        <v>35.26185330751449</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.88706684734587</v>
+        <v>42.31789857648849</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.88706684734587</v>
+        <v>44.69146356249146</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.88706684734587</v>
+        <v>19.74646373628255</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.88706684734587</v>
+        <v>36.28708224930486</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.88706684734587</v>
+        <v>40.79265167913471</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.88706684734587</v>
+        <v>-22.18359949525754</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.88706684734587</v>
+        <v>16.26251140405909</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.88706684734587</v>
+        <v>21.7125866658678</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.88706684734587</v>
+        <v>-6.159598853231817</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.88706684734587</v>
+        <v>3.654130864045239</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.88706684734587</v>
+        <v>7.900868231316192</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.88706684734587</v>
+        <v>6.824787168725631</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.88706684734587</v>
+        <v>9.867009232404964</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.88706684734587</v>
+        <v>12.85238798272567</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.88706684734587</v>
+        <v>18.85000902429945</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.88706684734587</v>
+        <v>25.90400811335669</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.88706684734587</v>
+        <v>28.27684919452261</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.88706684734587</v>
+        <v>3.336913560645169</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.88706684734587</v>
+        <v>19.87355106908253</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.88706684734587</v>
+        <v>24.37742152713954</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.88706684734587</v>
+        <v>-16.91205422844641</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.88706684734587</v>
+        <v>21.53819549223308</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.88706684734587</v>
+        <v>26.98958450388923</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.88706684734587</v>
+        <v>-0.8890169943672142</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.88706684734587</v>
+        <v>8.92763033252302</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.88706684734587</v>
+        <v>13.17530761191213</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.88706684734587</v>
+        <v>12.09879476914514</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.88706684734587</v>
+        <v>15.14304433039936</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.88706684734587</v>
+        <v>18.12916774013641</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.88706684734587</v>
+        <v>24.12919595968085</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.88706684734587</v>
+        <v>31.18488240416891</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.88706684734587</v>
+        <v>33.5581956225391</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.88706684734587</v>
+        <v>8.614544075710025</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.88706684734587</v>
+        <v>25.15437560075955</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.88706684734587</v>
+        <v>29.659325511866</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.88706684734587</v>
+        <v>-9.573973492587218</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.88706684734587</v>
+        <v>28.87620262614692</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.88706684734587</v>
+        <v>34.32800156329145</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.88706684734587</v>
+        <v>6.450286572973052</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.88706684734587</v>
+        <v>16.26720618590448</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.88706684734587</v>
+        <v>20.51531792856045</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.88706684734587</v>
+        <v>19.43879668645493</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.88706684734587</v>
+        <v>22.4833826477641</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.88706684734587</v>
+        <v>25.46986224072841</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.88706684734587</v>
+        <v>31.47106050491746</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.88706684734587</v>
+        <v>38.52689024669942</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.88706684734587</v>
+        <v>40.90039295323302</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.88706684734587</v>
+        <v>15.95620331275952</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.88706684734587</v>
+        <v>32.49626275174856</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.88706684734587</v>
+        <v>37.00165453179548</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.88706684734587</v>
+        <v>-14.03072386290532</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.88706684734587</v>
+        <v>24.41744729063285</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.88706684734587</v>
+        <v>29.86816483921066</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.88706684734587</v>
+        <v>1.994970014020762</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.88706684734587</v>
+        <v>11.80909038261157</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.88706684734587</v>
+        <v>16.05634634178082</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.88706684734587</v>
+        <v>14.98048674850909</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.88706684734587</v>
+        <v>18.02269594224074</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.88706684734587</v>
+        <v>21.00847240179749</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.88706684734587</v>
+        <v>27.00655903267809</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.88706684734587</v>
+        <v>34.06092111311355</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.88706684734587</v>
+        <v>36.43404750792834</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.88706684734587</v>
+        <v>11.49262232418144</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.88706684734587</v>
+        <v>28.03001841971982</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.88706684734587</v>
+        <v>32.53444852181329</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.88706684734587</v>
+        <v>-8.760038536142677</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.88706684734587</v>
+        <v>29.69227161475933</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.88706684734587</v>
+        <v>35.14430304075691</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.88706684734587</v>
+        <v>7.264691636540444</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.88706684734587</v>
+        <v>17.08172977831989</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.88706684734587</v>
+        <v>21.32992572775836</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.88706684734587</v>
+        <v>20.25363431919734</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.88706684734587</v>
+        <v>23.29787111790713</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.88706684734587</v>
+        <v>26.28439230336883</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.88706684734587</v>
+        <v>32.28488630110863</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.88706684734587</v>
+        <v>39.34093583552604</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.88706684734587</v>
+        <v>41.71453442578027</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.88706684734587</v>
+        <v>16.76939307305454</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.88706684734587</v>
+        <v>33.30998334373353</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.88706684734587</v>
+        <v>37.81549299706253</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.88706684734587</v>
+        <v>-1.422701994744646</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.88706684734587</v>
+        <v>37.02953451983458</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.88706684734587</v>
+        <v>42.48197590815735</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.88706684734587</v>
+        <v>14.60325113715342</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.88706684734587</v>
+        <v>24.42056156089646</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.88706684734587</v>
+        <v>28.66919199755037</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.88706684734587</v>
+        <v>27.59289212003298</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.88706684734587</v>
+        <v>30.63746532681548</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.88706684734587</v>
+        <v>33.62434271205339</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.88706684734587</v>
+        <v>39.62600691086689</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.88706684734587</v>
+        <v>46.68219974172487</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.88706684734587</v>
+        <v>49.05598782406926</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.88706684734587</v>
+        <v>24.11030838817171</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.88706684734587</v>
+        <v>40.65112656451177</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.88706684734587</v>
+        <v>45.15707811351925</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.88706684734587</v>
+        <v>-13.44150599002726</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.88706684734587</v>
+        <v>25.0058420307827</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.88706684734587</v>
+        <v>30.4561389263803</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.88706684734587</v>
+        <v>2.583565372642422</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.88706684734587</v>
+        <v>12.39787266326746</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.88706684734587</v>
+        <v>16.64480624865794</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.88706684734587</v>
+        <v>15.56856366829382</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.88706684734587</v>
+        <v>18.61116959541803</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.88706684734587</v>
+        <v>21.59670564883757</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.88706684734587</v>
+        <v>27.59421794837774</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.88706684734587</v>
+        <v>34.6485088020477</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.88706684734587</v>
+        <v>37.02143026653246</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.88706684734587</v>
+        <v>12.08033574440926</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.88706684734587</v>
+        <v>28.61772794596075</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.88706684734587</v>
+        <v>33.12180569752857</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.88706684734587</v>
+        <v>-8.170431492573559</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.88706684734587</v>
+        <v>30.28105543096447</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.88706684734587</v>
+        <v>35.73266609623809</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.88706684734587</v>
+        <v>7.853676428408132</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.88706684734587</v>
+        <v>17.67090139007385</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.88706684734587</v>
+        <v>21.91877489886954</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.88706684734587</v>
+        <v>20.84210053258473</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.88706684734587</v>
+        <v>23.8867339971886</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.88706684734587</v>
+        <v>26.87301472123377</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.88706684734587</v>
+        <v>32.87293429506306</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.88706684734587</v>
+        <v>39.92891253605799</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.88706684734587</v>
+        <v>42.30230614604343</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.88706684734587</v>
+        <v>17.3574956644143</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.88706684734587</v>
+        <v>33.89808194675109</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.88706684734587</v>
+        <v>38.40323916700575</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.88706684734587</v>
+        <v>-0.8330465033826364</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.88706684734587</v>
+        <v>37.61836678590001</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.88706684734587</v>
+        <v>43.07038739477915</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.88706684734587</v>
+        <v>15.19228426465864</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.88706684734587</v>
+        <v>25.00978149331914</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.88706684734587</v>
+        <v>29.25808948726754</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.88706684734587</v>
+        <v>28.18140668988283</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.88706684734587</v>
+        <v>31.226376543881</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.88706684734587</v>
+        <v>34.21301346944975</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.88706684734587</v>
+        <v>40.21410315521419</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.88706684734587</v>
+        <v>47.27022468662975</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.88706684734587</v>
+        <v>49.64380779169599</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.88706684734587</v>
+        <v>24.6984592393633</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.88706684734587</v>
+        <v>41.2392734137284</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.88706684734587</v>
+        <v>45.74487252465681</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.88706684734587</v>
+        <v>-4.126650714500304</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.88706684734587</v>
+        <v>34.32227860328479</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.88706684734587</v>
+        <v>39.77302907872948</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.88706684734587</v>
+        <v>11.89999154205296</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.88706684734587</v>
+        <v>21.71461707655581</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.88706684734587</v>
+        <v>25.96190203035021</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.88706684734587</v>
+        <v>24.88597013266579</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.88706684734587</v>
+        <v>27.9285892668652</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.88706684734587</v>
+        <v>30.91438328104439</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.88706684734587</v>
+        <v>36.91233483006366</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.88706684734587</v>
+        <v>43.96692123882181</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.88706684734587</v>
+        <v>46.34005895817441</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.88706684734587</v>
+        <v>21.39780941333745</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.88706684734587</v>
+        <v>37.93580218634682</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.88706684734587</v>
+        <v>42.44025989862419</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.88706684734587</v>
+        <v>1.144522251314381</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.88706684734587</v>
+        <v>39.59759060228899</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.88706684734587</v>
+        <v>45.04965493864793</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.88706684734587</v>
+        <v>17.1702008566074</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.88706684734587</v>
+        <v>26.98774419516226</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.88706684734587</v>
+        <v>31.23596911592281</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.88706684734587</v>
+        <v>30.15960544102839</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.88706684734587</v>
+        <v>33.20425220189091</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.88706684734587</v>
+        <v>36.19079092214989</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.88706684734587</v>
+        <v>42.19114988365507</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.88706684734587</v>
+        <v>49.24742376219527</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.88706684734587</v>
+        <v>51.62103366691352</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.88706684734587</v>
+        <v>26.6750679294071</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.88706684734587</v>
+        <v>43.21625490916463</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.88706684734587</v>
+        <v>47.7217921505036</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.88706684734587</v>
+        <v>8.481131454614367</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.88706684734587</v>
+        <v>46.9341261365237</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.88706684734587</v>
+        <v>52.38660044673114</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.88706684734587</v>
+        <v>24.50803297554401</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.88706684734587</v>
+        <v>34.32584858022292</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.88706684734587</v>
+        <v>38.57450799468771</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.88706684734587</v>
+        <v>37.49813583671724</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.88706684734587</v>
+        <v>40.54311899435564</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.88706684734587</v>
+        <v>43.53001391716137</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.88706684734587</v>
+        <v>49.53154311275605</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.88706684734587</v>
+        <v>56.58796028340421</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.88706684734587</v>
+        <v>58.96175968193748</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.88706684734587</v>
+        <v>34.01525589163023</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.88706684734587</v>
+        <v>50.55667075569809</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.88706684734587</v>
+        <v>55.0626498998146</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.88706684734587</v>
+        <v>-10.1420299352595</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.88706684734587</v>
+        <v>28.30526341862335</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.88706684734587</v>
+        <v>33.75588304334363</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.88706684734587</v>
+        <v>5.883607274621934</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.88706684734587</v>
+        <v>15.6975378780825</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.88706684734587</v>
+        <v>19.94470690349126</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.88706684734587</v>
+        <v>18.86892449584596</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.88706684734587</v>
+        <v>21.91109646602458</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.88706684734587</v>
+        <v>24.89681219359923</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.88706684734587</v>
+        <v>30.89471834849158</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.88706684734587</v>
+        <v>37.94893561578218</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.88706684734587</v>
+        <v>40.32202741961126</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.88706684734587</v>
+        <v>15.38106543671281</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.88706684734587</v>
+        <v>31.91811113838903</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.88706684734587</v>
+        <v>36.42245377149302</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.88706684734587</v>
+        <v>-4.870673948555325</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.88706684734587</v>
+        <v>33.58075829286454</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.88706684734587</v>
+        <v>39.03269176449331</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.88706684734587</v>
+        <v>11.1539996159743</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.88706684734587</v>
+        <v>20.97084792083106</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.88706684734587</v>
+        <v>25.21895690653573</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.88706684734587</v>
+        <v>24.14274272463561</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.88706684734587</v>
+        <v>27.18694224826711</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.88706684734587</v>
+        <v>30.17340267683587</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.88706684734587</v>
+        <v>36.17371614333982</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.88706684734587</v>
+        <v>43.229620821184</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.88706684734587</v>
+        <v>45.60318480988283</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.88706684734587</v>
+        <v>20.65850672644708</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.88706684734587</v>
+        <v>37.19874652137096</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.88706684734587</v>
+        <v>41.70416867447184</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.88706684734587</v>
+        <v>2.465916059950384</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.88706684734587</v>
+        <v>40.91727465455577</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.88706684734587</v>
+        <v>46.36961808363802</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.88706684734587</v>
+        <v>18.49181254347743</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.88706684734587</v>
+        <v>28.30893311724438</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.88706684734587</v>
+        <v>32.55747657987584</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.88706684734587</v>
+        <v>31.48125390794555</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.88706684734587</v>
+        <v>34.52578982800392</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.88706684734587</v>
+        <v>37.51260644472509</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.88706684734587</v>
+        <v>43.51409010472824</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.88706684734587</v>
+        <v>50.57013807677154</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.88706684734587</v>
+        <v>52.94389155173067</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.88706684734587</v>
+        <v>27.99867541392726</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.88706684734587</v>
+        <v>44.53914310147505</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.88706684734587</v>
+        <v>49.04500713972632</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.88706684734587</v>
+        <v>-11.13997576432243</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.88706684734587</v>
+        <v>27.30898216701874</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.88706684734587</v>
+        <v>32.75956266656183</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.88706684734587</v>
+        <v>4.886004736687962</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.88706684734587</v>
+        <v>14.70072990510473</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.88706684734587</v>
+        <v>18.94787855644247</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.88706684734587</v>
+        <v>17.87169844137432</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.88706684734587</v>
+        <v>20.91443157573022</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.88706684734587</v>
+        <v>23.90011442751407</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.88706684734587</v>
+        <v>29.89797404240474</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.88706684734587</v>
+        <v>36.95258097037598</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.88706684734587</v>
+        <v>39.32561615307284</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.88706684734587</v>
+        <v>14.38343330633304</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.88706684734587</v>
+        <v>30.9215208878376</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.88706684734587</v>
+        <v>35.42582673045663</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.88706684734587</v>
+        <v>-5.868435267031462</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.88706684734587</v>
+        <v>32.58466172543595</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.88706684734587</v>
+        <v>38.0365560571403</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.88706684734587</v>
+        <v>10.15658168993448</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.88706684734587</v>
+        <v>19.97422465756202</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.88706684734587</v>
+        <v>24.22231326678914</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.88706684734587</v>
+        <v>23.14570137336548</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.88706684734587</v>
+        <v>26.19046213482536</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.88706684734587</v>
+        <v>29.17688968323526</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.88706684734587</v>
+        <v>35.17715667572978</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.88706684734587</v>
+        <v>42.23345106815694</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.88706684734587</v>
+        <v>44.60695841832447</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.88706684734587</v>
+        <v>19.66105943549703</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.88706684734587</v>
+        <v>36.20234123030187</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.88706684734587</v>
+        <v>40.70772658487763</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.88706684734587</v>
+        <v>1.468718949906386</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.88706684734587</v>
+        <v>39.92174228645311</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.88706684734587</v>
+        <v>45.37404658700146</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.88706684734587</v>
+        <v>17.49495880826364</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.88706684734587</v>
+        <v>27.31287404488799</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.88706684734587</v>
+        <v>31.56139716049043</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.88706684734587</v>
+        <v>30.48477680560907</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.88706684734587</v>
+        <v>33.52987396498943</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.88706684734587</v>
+        <v>36.5166577307929</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.88706684734587</v>
+        <v>42.51809491683278</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.88706684734587</v>
+        <v>49.57453260013042</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.88706684734587</v>
+        <v>51.94822945418926</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.88706684734587</v>
+        <v>27.0017923955734</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.88706684734587</v>
+        <v>43.54330208084005</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.88706684734587</v>
+        <v>48.04912934840152</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.88706684734587</v>
+        <v>-15.9358401295842</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.88706684734587</v>
+        <v>22.51087963399496</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.88706684734587</v>
+        <v>27.96139488648614</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.88706684734587</v>
+        <v>0.08905547863016849</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.88706684734587</v>
+        <v>9.902825339995641</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.88706684734587</v>
+        <v>14.14993418353972</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.88706684734587</v>
+        <v>13.07401221242119</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.88706684734587</v>
+        <v>16.11613873697641</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.88706684734587</v>
+        <v>19.10181659820571</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.88706684734587</v>
+        <v>25.0995844159045</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.88706684734587</v>
+        <v>32.15366804066176</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.88706684734587</v>
+        <v>34.52670178169834</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.88706684734587</v>
+        <v>9.586184026692788</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.88706684734587</v>
+        <v>26.12297693443943</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.88706684734587</v>
+        <v>30.6272491032245</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.88706684734587</v>
+        <v>-10.66412317495278</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.88706684734587</v>
+        <v>27.786735482213</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.88706684734587</v>
+        <v>33.23856457041748</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.88706684734587</v>
+        <v>5.359808837312155</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.88706684734587</v>
+        <v>15.17649640212099</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.88706684734587</v>
+        <v>19.42454521306504</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.88706684734587</v>
+        <v>18.34819143571033</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.88706684734587</v>
+        <v>21.39234552516237</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.88706684734587</v>
+        <v>24.37876809591253</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.88706684734587</v>
+        <v>30.37894314751204</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.88706684734587</v>
+        <v>37.43471417641948</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.88706684734587</v>
+        <v>39.80822009884039</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.88706684734587</v>
+        <v>14.86398625986842</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.88706684734587</v>
+        <v>31.40397326932284</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.88706684734587</v>
+        <v>35.9093249605593</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.88706684734587</v>
+        <v>-3.327016419830418</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.88706684734587</v>
+        <v>35.12376860245345</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.88706684734587</v>
+        <v>40.57600763384758</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.88706684734587</v>
+        <v>12.6981384949577</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.88706684734587</v>
+        <v>22.51509833104742</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.88706684734587</v>
+        <v>26.76358160976124</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.88706684734587</v>
+        <v>25.68721937085072</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.88706684734587</v>
+        <v>28.73170985583252</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.88706684734587</v>
+        <v>31.71848861148569</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.88706684734587</v>
+        <v>37.71983382206989</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.88706684734587</v>
+        <v>44.77574814002733</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.88706684734587</v>
+        <v>47.14944354440163</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.88706684734587</v>
+        <v>22.20467164741265</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.88706684734587</v>
+        <v>38.74488655323879</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.88706684734587</v>
+        <v>43.25068012071327</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.88706684734587</v>
+        <v>-11.33459393924645</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.88706684734587</v>
+        <v>27.11252385975811</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.88706684734587</v>
+        <v>32.56315591540081</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.88706684734587</v>
+        <v>4.690930403533709</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.88706684734587</v>
+        <v>14.50476959756693</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.88706684734587</v>
+        <v>18.75195196287714</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.88706684734587</v>
+        <v>17.67616025981104</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.88706684734587</v>
+        <v>20.71826519890797</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.88706684734587</v>
+        <v>23.70399552142672</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.88706684734587</v>
+        <v>29.70191314074784</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.88706684734587</v>
+        <v>36.75608627772399</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.88706684734587</v>
+        <v>39.12918546501297</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.88706684734587</v>
+        <v>14.18836751316783</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.88706684734587</v>
+        <v>30.72529682732707</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.88706684734587</v>
+        <v>35.22965488973469</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.88706684734587</v>
+        <v>-6.063496485036669</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.88706684734587</v>
+        <v>32.38776018946183</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.88706684734587</v>
+        <v>37.83970609720032</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.88706684734587</v>
+        <v>9.961064196068516</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.88706684734587</v>
+        <v>19.77782108460829</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.88706684734587</v>
+        <v>24.02594341658019</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.88706684734587</v>
+        <v>22.94971992347521</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.88706684734587</v>
+        <v>25.99385241151063</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.88706684734587</v>
+        <v>28.98032744162733</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.88706684734587</v>
+        <v>34.98065236362393</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.88706684734587</v>
+        <v>42.03651290772362</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.88706684734587</v>
+        <v>44.41008428307558</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.88706684734587</v>
+        <v>19.46555023637941</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.88706684734587</v>
+        <v>36.00567363536712</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.88706684734587</v>
+        <v>40.51111122446733</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.88706684734587</v>
+        <v>1.273180564446672</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.88706684734587</v>
+        <v>39.72436359640975</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.88706684734587</v>
+        <v>45.17671945926841</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.88706684734587</v>
+        <v>17.29896417231637</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.88706684734587</v>
+        <v>27.11599333066865</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.88706684734587</v>
+        <v>31.36455013764308</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.88706684734587</v>
+        <v>30.28831815588321</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.88706684734587</v>
+        <v>33.33278704058412</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.88706684734587</v>
+        <v>36.31961825790441</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.88706684734587</v>
+        <v>42.32111336984829</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.88706684734587</v>
+        <v>49.37711720734708</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.88706684734587</v>
+        <v>51.75087806806894</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.88706684734587</v>
+        <v>26.80580596510165</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.88706684734587</v>
+        <v>43.34615725840732</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.88706684734587</v>
+        <v>47.85203673081006</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.88706684734587</v>
+        <v>-7.028537115846891</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.88706684734587</v>
+        <v>31.4189956289056</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>29.88706684734587</v>
+        <v>36.86951218088055</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.88706684734587</v>
+        <v>8.997506819710477</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.88706684734587</v>
+        <v>18.81162872236669</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.88706684734587</v>
+        <v>23.05876361412757</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.88706684734587</v>
+        <v>21.98285649057859</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.88706684734587</v>
+        <v>25.02522462561162</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.88706684734587</v>
+        <v>28.01091423872574</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.88706684734587</v>
+        <v>34.00870507471407</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>29.88706684734587</v>
+        <v>41.06297338480957</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.88706684734587</v>
+        <v>43.43598703418368</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.88706684734587</v>
+        <v>18.49486180806937</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.88706684734587</v>
+        <v>35.03213789159113</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.88706684734587</v>
+        <v>39.5364225730888</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.88706684734587</v>
+        <v>-1.757735922274353</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.88706684734587</v>
+        <v>36.69393573765993</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.88706684734587</v>
+        <v>42.14576608849271</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.88706684734587</v>
+        <v>14.26734439324607</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.88706684734587</v>
+        <v>24.08438399635011</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.88706684734587</v>
+        <v>28.33245881876647</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.88706684734587</v>
+        <v>27.25611993461441</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.88706684734587</v>
+        <v>30.30051562154099</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.88706684734587</v>
+        <v>33.28694991221951</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>29.88706684734587</v>
+        <v>39.28714806145993</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.88706684734587</v>
+        <v>46.34310377873354</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.88706684734587</v>
+        <v>48.71658958734898</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.88706684734587</v>
+        <v>23.77174833044844</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.88706684734587</v>
+        <v>40.31221851460762</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.88706684734587</v>
+        <v>44.81758267992521</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.88706684734587</v>
+        <v>5.579069796932824</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.88706684734587</v>
+        <v>44.0306678102543</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.88706684734587</v>
+        <v>49.4829081105627</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.88706684734587</v>
+        <v>21.60537299152841</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.88706684734587</v>
+        <v>31.42268485597301</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.88706684734587</v>
+        <v>35.6711941608236</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.88706684734587</v>
+        <v>34.59484681925576</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.88706684734587</v>
+        <v>37.6395788923451</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.88706684734587</v>
+        <v>40.62636937961591</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.88706684734587</v>
+        <v>46.62773770291236</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.88706684734587</v>
+        <v>53.68383670913036</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>29.88706684734587</v>
+        <v>56.05751200852174</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.88706684734587</v>
+        <v>31.11213269021553</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.88706684734587</v>
+        <v>47.65283075905919</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>29.88706684734587</v>
+        <v>52.15863681308579</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.88706684734587</v>
+        <v>-9.938869278035074</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.88706684734587</v>
+        <v>28.51000907376774</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.88706684734587</v>
+        <v>33.9606036143804</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.88706684734587</v>
+        <v>6.08722736917073</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.88706684734587</v>
+        <v>15.90193674703985</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.88706684734587</v>
+        <v>20.1491003736526</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.88706684734587</v>
+        <v>19.07292687495626</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.88706684734587</v>
+        <v>22.11565793072182</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.88706684734587</v>
+        <v>25.10135364495514</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.88706684734587</v>
+        <v>31.0992136304649</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.88706684734587</v>
+        <v>38.15380871926519</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.88706684734587</v>
+        <v>40.52685134539607</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.88706684734587</v>
+        <v>15.58468580768047</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.88706684734587</v>
+        <v>32.12274271931145</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.88706684734587</v>
+        <v>36.62706400920914</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.88706684734587</v>
+        <v>-4.667291897018888</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.88706684734587</v>
+        <v>33.78572550201469</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.88706684734587</v>
+        <v>39.23763387564875</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.88706684734587</v>
+        <v>11.35784120052179</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.88706684734587</v>
+        <v>21.17546837270632</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.88706684734587</v>
+        <v>25.4235719548158</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.88706684734587</v>
+        <v>24.3469666806632</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.88706684734587</v>
+        <v>27.39172535982348</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.88706684734587</v>
+        <v>30.37816576933588</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.88706684734587</v>
+        <v>36.37843312753969</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.88706684734587</v>
+        <v>43.43471567690293</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.88706684734587</v>
+        <v>45.8082304708644</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.88706684734587</v>
+        <v>20.86234879824954</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.88706684734587</v>
+        <v>37.40359991636561</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.88706684734587</v>
+        <v>41.90900071711863</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.88706684734587</v>
+        <v>2.669664423771817</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.88706684734587</v>
+        <v>41.12260816281096</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.88706684734587</v>
+        <v>46.57492650418445</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.88706684734587</v>
+        <v>18.69602041610394</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.88706684734587</v>
+        <v>28.5139198543292</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.88706684734587</v>
+        <v>32.76245794077059</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.88706684734587</v>
+        <v>31.68584419988522</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.88706684734587</v>
+        <v>34.73093927424864</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.88706684734587</v>
+        <v>37.71773589875605</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.88706684734587</v>
+        <v>43.71917345682576</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.88706684734587</v>
+        <v>50.77559929665247</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.88706684734587</v>
+        <v>53.14930359269377</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.88706684734587</v>
+        <v>28.20288385231813</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>29.88706684734587</v>
+        <v>44.7443628569155</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.88706684734587</v>
+        <v>49.25020556840687</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-12.53745922884045</v>
+        <v>-12.5374592288583</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.91041938666561</v>
+        <v>25.9104193866523</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.36116440517074</v>
+        <v>31.36116440519336</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.488252723989742</v>
+        <v>3.488252724006795</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.30230376893601</v>
+        <v>13.30230376900013</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>17.54957751314342</v>
+        <v>17.54957751312409</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.47370692335064</v>
+        <v>16.47370692338566</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.51589571225488</v>
+        <v>19.5158957123273</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.50169443006328</v>
+        <v>22.50169443010432</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.4997121110205</v>
+        <v>28.49971211106142</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.55402484789411</v>
+        <v>35.5540248478915</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.927166131679</v>
+        <v>37.92716613170299</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.98584831874066</v>
+        <v>12.98584831882047</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.52312172972122</v>
+        <v>29.52312172971974</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.02757732476633</v>
+        <v>34.02757732478327</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-7.265827189108993</v>
+        <v>-7.265827189093304</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.18619041013565</v>
+        <v>31.18619041020386</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.63824930958393</v>
+        <v>36.63824930962508</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.758921105678407</v>
+        <v>8.758921105636798</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.57588992250251</v>
+        <v>18.57588992251013</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.82410365925946</v>
+        <v>22.8241036593694</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21.74780126540125</v>
+        <v>21.74780126547742</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.79201766116003</v>
+        <v>24.79201766116639</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>27.778561108545</v>
+        <v>27.77856110853682</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.77898611999902</v>
+        <v>33.77898611999174</v>
       </c>
     </row>
     <row r="27">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>43.20859978924719</v>
+        <v>43.20859978920603</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18.26356578654238</v>
+        <v>18.26356578664084</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.80403336916336</v>
+        <v>34.80403336920611</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>39.30956851892486</v>
+        <v>39.30956851890645</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.07112264724881001</v>
+        <v>0.07112264728791828</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.52306660127263</v>
+        <v>38.52306660128264</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.97553546410703</v>
+        <v>43.97553546408315</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>16.09709389097341</v>
+        <v>16.09709389088701</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.91433498037204</v>
+        <v>25.91433498035283</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.16298320362275</v>
+        <v>30.16298320366812</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.08667232650989</v>
+        <v>29.08667232646783</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.13122512304281</v>
+        <v>32.13122512302905</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>35.11812476954574</v>
+        <v>35.11812476951835</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.11971999022697</v>
+        <v>41.11971999024084</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>48.17586346882379</v>
+        <v>48.17586346885949</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>50.54966644151526</v>
+        <v>50.54966644152412</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.60409437285923</v>
+        <v>25.60409437288856</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.14478985145357</v>
+        <v>42.14478985143037</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.6507668968699</v>
+        <v>46.65076689683397</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-11.15061974708792</v>
+        <v>-11.1506197470039</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.29805342547209</v>
+        <v>27.29805342547504</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.74850219116618</v>
+        <v>32.74850219114003</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.875401312958754</v>
+        <v>4.875401312944657</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>14.69012489899731</v>
+        <v>14.69012489899037</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>18.93718830621904</v>
+        <v>18.93718830622529</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>17.86089990892836</v>
+        <v>17.8608999090093</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>20.90371201276664</v>
+        <v>20.90371201274254</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>23.88933449590902</v>
+        <v>23.88933449594222</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.8870809930452</v>
+        <v>29.88708099307044</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.94163568088371</v>
+        <v>36.94163568092725</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.31461629874994</v>
+        <v>39.31461629876893</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.37261614907063</v>
+        <v>14.37261614908382</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.91065360254211</v>
+        <v>30.91065360255541</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.41486146381422</v>
+        <v>35.41486146381956</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-5.879586977080269</v>
+        <v>-5.879586977104484</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.57322521618531</v>
+        <v>32.57322521615598</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.02498776829535</v>
+        <v>38.02498776831467</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10.14547059340205</v>
+        <v>10.14547059343888</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>19.9631119401254</v>
+        <v>19.96311194011824</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.21111526863731</v>
+        <v>24.21111526864129</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>23.13439511512595</v>
+        <v>23.13439511517211</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.17923481776293</v>
+        <v>26.17923481776679</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.16560196717628</v>
+        <v>29.16560196714149</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.1657558497914</v>
+        <v>35.16575584972864</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>42.2219979774857</v>
+        <v>42.22199797744557</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>44.59545074341352</v>
+        <v>44.595450743425</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>19.64973454372014</v>
+        <v>19.64973454366148</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.19096617243625</v>
+        <v>36.1909661724666</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>40.69625350511527</v>
+        <v>40.69625350510128</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.457903488563286</v>
+        <v>1.457903488528498</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.9106420286503</v>
+        <v>39.91064202857186</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.36281454282519</v>
+        <v>45.36281454281655</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>17.4841839221888</v>
+        <v>17.48418392219744</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>27.30209753752265</v>
+        <v>27.30209753757438</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>31.55053536339974</v>
+        <v>31.5505353633994</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>30.47380678454968</v>
+        <v>30.47380678462335</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>33.51898288007672</v>
+        <v>33.51898288007001</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>36.5057062393544</v>
+        <v>36.50570623942227</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>42.50703028451633</v>
+        <v>42.50703028453293</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>49.56341570457826</v>
+        <v>49.56341570463215</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>51.93705797066119</v>
+        <v>51.93705797072553</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.99080369649507</v>
+        <v>26.99080369644573</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>43.53226321360412</v>
+        <v>43.53226321360935</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>48.03799245057658</v>
+        <v>48.03799245063274</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-11.81728836011903</v>
+        <v>-11.81728836007935</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.63140338300789</v>
+        <v>26.63140338297719</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.08180693174384</v>
+        <v>32.0818069317543</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4.20869395730281</v>
+        <v>4.208693957222092</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>14.0234028308362</v>
+        <v>14.02340283083586</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>18.27043845947562</v>
+        <v>18.27043845949643</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>17.19419654254332</v>
+        <v>17.19419654257151</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.23699045751769</v>
+        <v>20.23699045750905</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>23.22258465109726</v>
+        <v>23.22258465116343</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.22044655686957</v>
+        <v>29.22044655689799</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.27500009814585</v>
+        <v>36.2750000981795</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.64795329013296</v>
+        <v>38.64795329015524</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.70600937388829</v>
+        <v>13.70600937392421</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.24403873375516</v>
+        <v>30.24403873377403</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>34.74820940131329</v>
+        <v>34.74820940135785</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-6.545628273437817</v>
+        <v>-6.545628273390864</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.90720251112944</v>
+        <v>31.90720251116752</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.35891984151831</v>
+        <v>37.35891984153412</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>9.479390579125972</v>
+        <v>9.479390579087092</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>19.29701722427935</v>
+        <v>19.2970172242955</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>23.54499277253253</v>
+        <v>23.54499277258006</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>22.46831911014649</v>
+        <v>22.46831911021038</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.51314063295049</v>
+        <v>25.5131406329522</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.49947949086654</v>
+        <v>28.49947949089372</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.49974874575904</v>
+        <v>34.49974874570265</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.55598973241277</v>
+        <v>41.55598973237605</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>43.9294150681732</v>
+        <v>43.92941506822197</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.98375508557185</v>
+        <v>18.98375508560573</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>35.52497863519957</v>
+        <v>35.52497863523936</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.03022877099457</v>
+        <v>40.03022877102981</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.7918638150709079</v>
+        <v>0.7918638150731816</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>39.24462095196978</v>
+        <v>39.24462095191271</v>
       </c>
     </row>
     <row r="124">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>16.81810552965706</v>
+        <v>16.8181055295968</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.63600444522652</v>
+        <v>26.63600444523277</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>30.88441449444306</v>
+        <v>30.88441449444295</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.80773240138413</v>
+        <v>29.80773240142051</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.85289031901951</v>
+        <v>32.85289031900143</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>35.8395853900054</v>
+        <v>35.83958539008395</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>41.84102479661786</v>
+        <v>41.84102479660376</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>48.89740907650824</v>
+        <v>48.89740907657031</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>51.27102391480551</v>
+        <v>51.27102391486713</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.32482584759921</v>
+        <v>26.3248258476174</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>42.86627728870738</v>
+        <v>42.86627728877173</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>47.37196933111412</v>
+        <v>47.37196933114845</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-17.82226730489512</v>
+        <v>-17.82226730490399</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.62533670077974</v>
+        <v>20.6253367007769</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26.0759637189316</v>
+        <v>26.07596371891057</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-1.796941017106722</v>
+        <v>-1.796941017138099</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>8.016923710065182</v>
+        <v>8.016923710115659</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>12.26409148115388</v>
+        <v>12.26409148118935</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11.18826319085681</v>
+        <v>11.18826319088069</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>14.23030329821827</v>
+        <v>14.23030329823646</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.21601186083185</v>
+        <v>17.21601186086164</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>23.21413396460801</v>
+        <v>23.21413396463734</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.26837063524888</v>
+        <v>30.26837063528424</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.64147265242471</v>
+        <v>32.64147265243005</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>7.700526402896255</v>
+        <v>7.70052640290535</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>24.2375830030559</v>
+        <v>24.23758300304476</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.74192438076002</v>
+        <v>28.74192438072273</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-12.55106574259364</v>
+        <v>-12.5510657425817</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.90067720698962</v>
+        <v>25.90067720699031</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.35261809460999</v>
+        <v>31.35261809459885</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3.473296887010545</v>
+        <v>3.473296886939377</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>13.29007935053167</v>
+        <v>13.29007935051768</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17.53818710161729</v>
+        <v>17.53818710158808</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.46192701419661</v>
+        <v>16.46192701422185</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>19.50599470032241</v>
+        <v>19.50599470035652</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>22.49244797954023</v>
+        <v>22.49244797955182</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.49297742438241</v>
+        <v>28.49297742439151</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.54890152801752</v>
+        <v>35.54890152799001</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>37.9224757373502</v>
+        <v>37.92247573734269</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12.97781334365621</v>
+        <v>12.977813343711</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.51806407799486</v>
+        <v>29.51806407794802</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.02348499654195</v>
+        <v>34.02348499653536</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-5.21365786487522</v>
+        <v>-5.21365786489125</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.2380114569377</v>
+        <v>33.23801145687949</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.69036230194925</v>
+        <v>38.69036230192629</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.81192772008151</v>
+        <v>10.81192772008401</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20.62898247149567</v>
+        <v>20.62898247150261</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24.87752470016815</v>
+        <v>24.87752470020009</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.8012561445087</v>
+        <v>23.80125614456099</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.8456602430239</v>
+        <v>26.84566024311144</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.83246971174972</v>
+        <v>29.83246971182521</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.83416934169489</v>
+        <v>35.83416934169853</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>42.89023674526121</v>
+        <v>42.89023674526848</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>45.26400044285052</v>
+        <v>45.26400044286234</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>20.31879996535397</v>
+        <v>20.31879996532851</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>36.85927861151245</v>
+        <v>36.85927861150154</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>41.36514141621151</v>
+        <v>41.36514141619151</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-8.421845171154562</v>
+        <v>-8.421845171168773</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.02616011012972</v>
+        <v>30.02616011010914</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>35.47678818613352</v>
+        <v>35.47678818614159</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>7.604052389080632</v>
+        <v>7.604052389032201</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.41831516796233</v>
+        <v>17.41831516795369</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.6654784666147</v>
+        <v>21.66547846659901</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20.58965353157512</v>
+        <v>20.58965353156284</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>23.63205270594338</v>
+        <v>23.63205270595759</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.61775421200857</v>
+        <v>26.61775421205871</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.61567704148868</v>
+        <v>32.6156770414714</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>39.67006607293334</v>
+        <v>39.67006607290526</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>42.04315620129015</v>
+        <v>42.04315620128503</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>17.10161417016459</v>
+        <v>17.10161417018983</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.63909762549045</v>
+        <v>33.6390976254817</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>38.14343399009115</v>
+        <v>38.14343399006808</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-3.149123775061842</v>
+        <v>-3.14912377510618</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.3030204757238</v>
+        <v>35.30302047573744</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>40.75496240251735</v>
+        <v>40.75496240254213</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>12.87581022005363</v>
+        <v>12.87581022001566</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>22.69299075880056</v>
+        <v>22.69299075877907</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.94109401580911</v>
+        <v>26.94109401580627</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.8648373388153</v>
+        <v>25.8648373388078</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.90926411180899</v>
+        <v>28.90926411177898</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.89571031646429</v>
+        <v>31.89571031645974</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.89604047539891</v>
+        <v>37.89604047540618</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>44.95211694632931</v>
+        <v>44.95211694634023</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>47.32567925773847</v>
+        <v>47.32567925772278</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>22.38042106168293</v>
+        <v>22.38042106169044</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>38.92109867616003</v>
+        <v>38.92109867617731</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.4265145600323</v>
+        <v>43.42651456004663</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>4.187387396123338</v>
+        <v>4.187387396035117</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>42.63945798645412</v>
+        <v>42.63945798647867</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>48.09180988232904</v>
+        <v>48.09180988231972</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>20.21354428968268</v>
+        <v>20.21354428965449</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>30.03099709611106</v>
+        <v>30.03099709610276</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>34.27953483995898</v>
+        <v>34.27953484000071</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>33.20326967399527</v>
+        <v>33.20326967400777</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.24803284347573</v>
+        <v>36.2480328434456</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>39.23483524398753</v>
+        <v>39.23483524398924</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>45.23633560953002</v>
+        <v>45.23633560953661</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>52.29255537495627</v>
+        <v>52.29255537493376</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>54.66630717748947</v>
+        <v>54.66630717752744</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.72051092801919</v>
+        <v>29.72051092803397</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>46.26141643034603</v>
+        <v>46.26141643034831</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>50.76727420978582</v>
+        <v>50.76727420980447</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-6.67263658245199</v>
+        <v>-6.672636582443463</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>31.77439843364712</v>
+        <v>31.77439843362552</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>37.22457008489735</v>
+        <v>37.22457008487552</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>9.352988556847574</v>
+        <v>9.352988556825064</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>19.16734491559876</v>
+        <v>19.16734491552725</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>23.41415989364353</v>
+        <v>23.41415989367729</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.33811998842728</v>
+        <v>22.33811998839544</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.38086404029834</v>
+        <v>25.38086404026981</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.36629288593829</v>
+        <v>28.36629288589088</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>34.36381655610674</v>
+        <v>34.36381655608832</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>41.41809937859355</v>
+        <v>41.41809937860469</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>43.79096320478678</v>
+        <v>43.79096320481179</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>18.84989764438185</v>
+        <v>18.84989764438708</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.38727872955863</v>
+        <v>35.38727872957159</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>39.89122720719755</v>
+        <v>39.89122720720459</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-1.399166116744116</v>
+        <v>-1.399166116700915</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>37.05200775495635</v>
+        <v>37.05200775496147</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>42.50349312862434</v>
+        <v>42.50349312860695</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>14.62549566854934</v>
+        <v>14.62549566855344</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>24.44276968754141</v>
+        <v>24.44276968755403</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.69052452399731</v>
+        <v>28.69052452400311</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>27.61405297214881</v>
+        <v>27.61405297215222</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>30.65882455784847</v>
+        <v>30.65882455790952</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.64499801772197</v>
+        <v>33.64499801767298</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>39.64492894962089</v>
+        <v>39.64492894958451</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>46.70089914914095</v>
+        <v>46.70089914919916</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>49.07423509815979</v>
+        <v>49.07423509816343</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.12945359517837</v>
+        <v>24.129453595162</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>40.67002874108553</v>
+        <v>40.67002874105643</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>45.17505662458794</v>
+        <v>45.175056624625</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>5.937354472400809</v>
+        <v>5.937354472439008</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.38845467167656</v>
+        <v>44.38845467168622</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>49.8403500033933</v>
+        <v>49.8403500034332</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>21.96323902282395</v>
+        <v>21.96323902277257</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>31.7807852896922</v>
+        <v>31.78078528972426</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.02897460567104</v>
+        <v>36.02897460573993</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>34.9524946137324</v>
+        <v>34.9524946136992</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>37.99760256939217</v>
+        <v>37.99760256935829</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>40.98413222112677</v>
+        <v>40.9841322211411</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>46.98523328189097</v>
+        <v>46.98523328190097</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>54.04134676661673</v>
+        <v>54.04134676668039</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>56.41487220793445</v>
+        <v>56.41487220796719</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>31.46955267665819</v>
+        <v>31.4695526766848</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>48.01035568739022</v>
+        <v>48.01035568741227</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>52.51582545911756</v>
+        <v>52.51582545910097</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-15.22660498484172</v>
+        <v>-15.22660498486593</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.22017911148808</v>
+        <v>23.22017911144101</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.67059395538606</v>
+        <v>28.6705939553897</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.7984946455087787</v>
+        <v>0.7984946454698978</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>10.61235558080628</v>
+        <v>10.61235558087301</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>14.85941991543907</v>
+        <v>14.85941991544192</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>13.78340333307213</v>
+        <v>13.78340333312033</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.82564301796972</v>
+        <v>16.82564301791208</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>19.81129506720461</v>
+        <v>19.81129506718994</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.80908063633686</v>
+        <v>25.80908063633663</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.86318988270935</v>
+        <v>32.86318988266956</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.23615625334244</v>
+        <v>35.2361562533238</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>10.29564477047213</v>
+        <v>10.29564477045554</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.83254206308268</v>
+        <v>26.83254206303016</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.33675494971251</v>
+        <v>31.3367549496759</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-9.955007333570709</v>
+        <v>-9.955007333536603</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.49591567413975</v>
+        <v>28.49591567418852</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>33.94764431871207</v>
+        <v>33.94764431873469</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>6.069128753476914</v>
+        <v>6.069128753493739</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>15.88590738839823</v>
+        <v>15.88590738834537</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>20.13391167080183</v>
+        <v>20.13391167074033</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>19.05746329414981</v>
+        <v>19.05746329416777</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.10173054079021</v>
+        <v>22.10173054083853</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.08812728749197</v>
+        <v>25.08812728752664</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.08832007841331</v>
+        <v>31.08832007840968</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.14411672658278</v>
+        <v>38.14411672661552</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>40.51755525979732</v>
+        <v>40.51755525979004</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>15.57332774275713</v>
+        <v>15.57332774265708</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>32.11341913959737</v>
+        <v>32.11341913957554</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.61871152561221</v>
+        <v>36.61871152559652</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-2.617478693102019</v>
+        <v>-2.617478693101678</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>35.83337068324207</v>
+        <v>35.83337068327356</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>41.28550926400979</v>
+        <v>41.28550926409335</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>13.40788025984014</v>
+        <v>13.4078802597651</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>23.22493116078934</v>
+        <v>23.22493116071771</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>27.4733699157455</v>
+        <v>27.47336991575983</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>26.39691311377899</v>
+        <v>26.3969131137749</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.44151674679224</v>
+        <v>29.44151674679474</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>32.4282696874906</v>
+        <v>32.42826968751947</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>38.42963260520176</v>
+        <v>38.42963260521176</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>45.4855725355574</v>
+        <v>45.48557253551192</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>47.85920055441332</v>
+        <v>47.85920055432237</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>22.91443497070125</v>
+        <v>22.91443497070238</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>39.4547542586362</v>
+        <v>39.45475425862188</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>43.96048852499976</v>
+        <v>43.96048852498316</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-13.0270609584355</v>
+        <v>-13.02706095842698</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.42111496078578</v>
+        <v>25.42111496080215</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.87175299339142</v>
+        <v>30.8717529934253</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>2.998731352167194</v>
+        <v>2.998731352108987</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>12.81297724631363</v>
+        <v>12.81297724629738</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.06015262592214</v>
+        <v>17.06015262596864</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>15.98422684119398</v>
+        <v>15.98422684121968</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>19.02657850434209</v>
+        <v>19.02657850438598</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.01228653032333</v>
+        <v>22.01228653035676</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.01034022697834</v>
+        <v>28.01034022700153</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.0647509798886</v>
+        <v>35.06475097988394</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>37.43784793986416</v>
+        <v>37.43784793982493</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>12.49630185659728</v>
+        <v>12.49630185661388</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.03380969022819</v>
+        <v>29.0338096902349</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>33.53815616140255</v>
+        <v>33.53815616141108</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-7.75519048324961</v>
+        <v>-7.755190483236309</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.69712441979496</v>
+        <v>30.69712441983679</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>36.14907631007341</v>
+        <v>36.14907631007159</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>8.269638227072644</v>
+        <v>8.269638227097655</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>18.08680188601491</v>
+        <v>18.08680188600183</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.33491723155819</v>
+        <v>22.33491723157695</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>21.25855968252338</v>
+        <v>21.25855968249587</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>24.30293894619674</v>
+        <v>24.3029389461856</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>27.28939167513456</v>
+        <v>27.28939167521414</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.28985273605488</v>
+        <v>33.28985273604556</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>40.34595093587487</v>
+        <v>40.34595093587112</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>42.71952008067788</v>
+        <v>42.71952008068664</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>17.77425783388915</v>
+        <v>17.77425783380707</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.31495983328196</v>
+        <v>34.31495983326889</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>38.82038583069166</v>
+        <v>38.82038583065835</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-0.4182436414938344</v>
+        <v>-0.4182436415047484</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>38.03399761089068</v>
+        <v>38.03399761091615</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.48635947110134</v>
+        <v>43.48635947109861</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>15.60780799091779</v>
+        <v>15.60780799079387</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.42524392616658</v>
+        <v>25.42524392616215</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.67379376062788</v>
+        <v>29.67379376055251</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.59742773265409</v>
+        <v>28.59742773263113</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>31.64214340007825</v>
+        <v>31.64214340007916</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>34.62895232732618</v>
+        <v>34.62895232731412</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>40.63058358864535</v>
+        <v>40.63058358869924</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>47.68682508594091</v>
+        <v>47.68682508595933</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>50.0605837239564</v>
+        <v>50.06058372402757</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.11478340745819</v>
+        <v>25.11478340746433</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>41.65571330420656</v>
+        <v>41.65571330422941</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>46.16158119943751</v>
+        <v>46.16158119949947</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-0.728385801988086</v>
+        <v>-0.7283858019557989</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>37.71968336325054</v>
+        <v>37.71968336325031</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>43.17004635906451</v>
+        <v>43.17004635909885</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>15.29813981459031</v>
+        <v>15.29813981450345</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.11285609027803</v>
+        <v>25.11285609029497</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.35987380185136</v>
+        <v>29.35987380180554</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.2837600828507</v>
+        <v>28.28376008291096</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>31.32670113543898</v>
+        <v>31.32670113547843</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.31228890961555</v>
+        <v>34.31228890963067</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.30990033526635</v>
+        <v>40.30990033524338</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>47.36438098357169</v>
+        <v>47.36438098358431</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>49.73730868910619</v>
+        <v>49.73730868914518</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.79549869120549</v>
+        <v>24.79549869119026</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>41.33341034621722</v>
+        <v>41.33341034619119</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>45.83755916494889</v>
+        <v>45.83755916492649</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>4.542530733582023</v>
+        <v>4.542530733569063</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>42.99473883323779</v>
+        <v>42.99473883323665</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>48.4464155721644</v>
+        <v>48.44641557217327</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>20.56809281939607</v>
+        <v>20.56809281936242</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.38572680716757</v>
+        <v>30.38572680718962</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>34.63368439996762</v>
+        <v>34.63368439995966</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>33.55713896820092</v>
+        <v>33.55713896821274</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.60210758743372</v>
+        <v>36.60210758740359</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>39.58843999671197</v>
+        <v>39.58843999670071</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>45.58845876807257</v>
+        <v>45.58845876805734</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>52.64462682960973</v>
+        <v>52.644626829646</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>55.0180266650207</v>
+        <v>55.01802666503696</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.07250069123031</v>
+        <v>30.0725006912269</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>46.61360646358347</v>
+        <v>46.61360646357505</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>51.1188347120258</v>
+        <v>51.11883471198692</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>11.87912384915606</v>
+        <v>11.87912384912786</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>50.33125827105519</v>
+        <v>50.33125827100062</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>55.78334496735911</v>
+        <v>55.78334496735457</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.9059087374292</v>
+        <v>27.90590873742238</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>37.72381496939468</v>
+        <v>37.72381496939286</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>41.97220705059661</v>
+        <v>41.97220705059161</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>40.89565318055705</v>
+        <v>40.89565318054318</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>43.94095816864515</v>
+        <v>43.94095816868131</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>46.92764677974779</v>
+        <v>46.92764677976552</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>52.92883571845417</v>
+        <v>52.9288357184362</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>59.98514706079075</v>
+        <v>59.98514706081633</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>62.35873639080754</v>
+        <v>62.35873639086199</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>37.41267238374147</v>
+        <v>37.41267238373487</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>53.95400601729196</v>
+        <v>53.95400601728355</v>
       </c>
     </row>
     <row r="406">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-18.32116926459489</v>
+        <v>-18.32116926450474</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.12536605765095</v>
+        <v>20.12536605767914</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.57566914218173</v>
+        <v>25.57566914224222</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-2.296745728738049</v>
+        <v>-2.29674572881979</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>7.517219492609708</v>
+        <v>7.517219492626193</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>11.76416588995997</v>
+        <v>11.76416588996008</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>10.6879176808782</v>
+        <v>10.68791768081817</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.73030328626842</v>
+        <v>13.73030328631401</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.71586482009084</v>
+        <v>16.71586482011528</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>22.71340748566265</v>
+        <v>22.71340748572177</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.76751868854447</v>
+        <v>29.76751868856175</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>32.14043573211123</v>
+        <v>32.14043573211305</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>7.199963507996269</v>
+        <v>7.199963507980808</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.73688652727995</v>
+        <v>23.73688652723265</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.24098311921082</v>
+        <v>28.24098311913079</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-13.04945236458454</v>
+        <v>-13.0494523645609</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.40122183002805</v>
+        <v>25.4012218299853</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.85283870407366</v>
+        <v>30.85283870403273</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>2.974007712718983</v>
+        <v>2.974007712671462</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>12.79089059857906</v>
+        <v>12.79089059862192</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>17.03877694470966</v>
+        <v>17.03877694469568</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>15.96209691945412</v>
+        <v>15.96209691941911</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>19.00651006505577</v>
+        <v>19.00651006502713</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>21.99281629575139</v>
+        <v>21.99281629577754</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>27.9927661506945</v>
+        <v>27.99276615072429</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.04856473384771</v>
+        <v>35.04856473386329</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>37.42195393382454</v>
+        <v>37.42195393382511</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>12.47776573104559</v>
+        <v>12.47776573095487</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.01788282126679</v>
+        <v>29.01788282121029</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>33.5230589086448</v>
+        <v>33.5230589086265</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-5.712029442194169</v>
+        <v>-5.712029442179617</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.7385711226523</v>
+        <v>32.73857112265776</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>38.19059793049772</v>
+        <v>38.19059793051136</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>10.31265349337334</v>
+        <v>10.31265349332241</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>20.12980864257011</v>
+        <v>20.12980864250474</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>24.37812946661475</v>
+        <v>24.37812946659804</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>23.30144100539612</v>
+        <v>23.30144100537339</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.34619053557074</v>
+        <v>26.34619053560541</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.33285296618081</v>
+        <v>29.33285296618729</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.33397292422231</v>
+        <v>35.33397292424436</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>42.38991478838423</v>
+        <v>42.38991478835877</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>44.76349347834778</v>
+        <v>44.76349347834596</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.8187672136535</v>
+        <v>19.81876721364531</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>36.35911219345533</v>
+        <v>36.35911219341531</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>40.86473016532184</v>
+        <v>40.86473016529456</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-11.52640258873962</v>
+        <v>-11.52640258878066</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.92128313512549</v>
+        <v>26.92128313507626</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>32.37149959011859</v>
+        <v>32.37149959002389</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>4.49888913294242</v>
+        <v>4.498889132864203</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>14.31335054994033</v>
+        <v>14.31335054993306</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>18.5601863132446</v>
+        <v>18.56018631320276</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>17.48404918987105</v>
+        <v>17.48404918990721</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.52676612646874</v>
+        <v>20.52676612645396</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.5122062390873</v>
+        <v>23.51220623908162</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.50975240053438</v>
+        <v>29.50975240054302</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.56413811648636</v>
+        <v>36.56413811654184</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>38.93702348467687</v>
+        <v>38.93702348467846</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>13.99562591617862</v>
+        <v>13.99562591624706</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.53322770702041</v>
+        <v>30.53322770712034</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>35.03720254621729</v>
+        <v>35.03720254623718</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-6.253306042150346</v>
+        <v>-6.2533060422621</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.19851862446515</v>
+        <v>32.19851862446595</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>37.65004883987197</v>
+        <v>37.65004883980365</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>9.77102234828865</v>
+        <v>9.771022348219301</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>19.58840146595051</v>
+        <v>19.588401465874</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>23.83617713446668</v>
+        <v>23.83617713436766</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.75960829309158</v>
+        <v>22.75960829311046</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.80435279091298</v>
+        <v>25.8043527909588</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.79053755566101</v>
+        <v>28.79053755558996</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.79049099794477</v>
+        <v>34.79049099791203</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>41.84656411733684</v>
+        <v>41.84656411731865</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>44.21992162315249</v>
+        <v>44.21992162308155</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>19.27480805953112</v>
+        <v>19.27480805949542</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>35.81560396404032</v>
+        <v>35.815603963987</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>40.32065825409543</v>
+        <v>40.32065825405189</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1.083856484472133</v>
+        <v>1.083856484456216</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.53560750462978</v>
+        <v>39.53560750459704</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.98754767436051</v>
+        <v>44.98754767438962</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>17.10940768056232</v>
+        <v>17.10940768052867</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.92705906574636</v>
+        <v>26.92705906579092</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.17526922312961</v>
+        <v>31.17526922318418</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>30.09869195215608</v>
+        <v>30.09869195216131</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>33.14377283953255</v>
+        <v>33.14377283952879</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>36.13031380602061</v>
+        <v>36.13031380601322</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>42.13143736638679</v>
+        <v>42.1314373665214</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>49.18765377846185</v>
+        <v>49.18765377851733</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>51.56120078336463</v>
+        <v>51.56120078342011</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.61554915482546</v>
+        <v>26.61554915481841</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>43.15657294795929</v>
+        <v>43.15657294795918</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>47.66206913332931</v>
+        <v>47.6620691333292</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-18.39386799448753</v>
+        <v>-18.3938679945471</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.05340052602449</v>
+        <v>20.05340052606257</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.50365684289593</v>
+        <v>25.50365684294402</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-2.369037636868459</v>
+        <v>-2.36903763690427</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>7.445055459114112</v>
+        <v>7.445055459100697</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.69197052835275</v>
+        <v>11.69197052832433</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>10.61585911228874</v>
+        <v>10.61585911233331</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>13.65825438533218</v>
+        <v>13.65825438541108</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>16.64376801627534</v>
+        <v>16.64376801633514</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.64153210182488</v>
+        <v>22.64153210178941</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.69574667883958</v>
+        <v>29.69574667883219</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>32.06865002689952</v>
+        <v>32.06865002688826</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>7.127904275856761</v>
+        <v>7.12790427582129</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>23.6651007820665</v>
+        <v>23.66510078204808</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.16914885835379</v>
+        <v>28.16914885829808</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-13.12311465568448</v>
+        <v>-13.12311465577372</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.32829279040314</v>
+        <v>25.32829279038029</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>30.77986287984939</v>
+        <v>30.77986287984268</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>2.900752205255483</v>
+        <v>2.900752205222059</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>12.71776298511852</v>
+        <v>12.71776298510227</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>16.96561798066775</v>
+        <v>16.96561798067901</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>15.88907477187129</v>
+        <v>15.8890747717958</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>18.93349759136063</v>
+        <v>18.93349759135051</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>21.91975589489075</v>
+        <v>21.91975589493884</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.9199272445542</v>
+        <v>27.91992724455806</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.97582921783604</v>
+        <v>34.9758292178125</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.34920471149078</v>
+        <v>37.34920471148749</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>12.4047429850041</v>
+        <v>12.40474298493794</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.94513358737541</v>
+        <v>28.94513358736324</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.45026113498253</v>
+        <v>33.45026113499196</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-5.784972505792755</v>
+        <v>-5.784972505785479</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.66636132765055</v>
+        <v>32.66636132766499</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.11834135254597</v>
+        <v>38.11834135255131</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>10.24011722177991</v>
+        <v>10.24011722177604</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>20.05740028622315</v>
+        <v>20.05740028619939</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>24.30568975852978</v>
+        <v>24.30568975848874</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>23.22913814726715</v>
+        <v>23.22913814715733</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.27389736879914</v>
+        <v>26.27389736880596</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.26051186750524</v>
+        <v>29.26051186747227</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.26185330751449</v>
+        <v>35.2618533075445</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.31789857648849</v>
+        <v>42.31789857646075</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>44.69146356249146</v>
+        <v>44.69146356252762</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.74646373628255</v>
+        <v>19.74646373619251</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>36.28708224930486</v>
+        <v>36.28708224930156</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>40.79265167913471</v>
+        <v>40.7926516791164</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-22.18359949525754</v>
+        <v>-22.1835994952464</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.26251140405909</v>
+        <v>16.26251140404852</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>21.7125866658678</v>
+        <v>21.71258666585404</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-6.159598853231817</v>
+        <v>-6.159598853195551</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>3.654130864045239</v>
+        <v>3.654130864076048</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>7.900868231316192</v>
+        <v>7.900868231270604</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.824787168725631</v>
+        <v>6.82478716871972</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>9.867009232404964</v>
+        <v>9.86700923238325</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>12.85238798272567</v>
+        <v>12.85238798274352</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>18.85000902429945</v>
+        <v>18.85000902428467</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.90400811335669</v>
+        <v>25.90400811333793</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.27684919452261</v>
+        <v>28.27684919456956</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.336913560645169</v>
+        <v>3.336913560595601</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.87355106908253</v>
+        <v>19.87355106903842</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.37742152713954</v>
+        <v>24.37742152712886</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-16.91205422844641</v>
+        <v>-16.91205422846278</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.53819549223308</v>
+        <v>21.53819549214043</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.98958450388923</v>
+        <v>26.9895845037752</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-0.8890169943672142</v>
+        <v>-0.8890169944181459</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>8.92763033252302</v>
+        <v>8.927630332522224</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.17530761191213</v>
+        <v>13.17530761190951</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>12.09879476914514</v>
+        <v>12.09879476914719</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.14304433039936</v>
+        <v>15.14304433036594</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.12916774013641</v>
+        <v>18.1291677401812</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.12919595968085</v>
+        <v>24.1291959596754</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.18488240416891</v>
+        <v>31.18488240410559</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>33.5581956225391</v>
+        <v>33.55819562247351</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>8.614544075710025</v>
+        <v>8.614544075560641</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.15437560075955</v>
+        <v>25.15437560069418</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.659325511866</v>
+        <v>29.65932551185156</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-9.573973492587218</v>
+        <v>-9.573973492584489</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.87620262614692</v>
+        <v>28.87620262614783</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.32800156329145</v>
+        <v>34.3280015632678</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>6.450286572973052</v>
+        <v>6.450286572955545</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>16.26720618590448</v>
+        <v>16.2672061858905</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.51531792856045</v>
+        <v>20.51531792852759</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>19.43879668645493</v>
+        <v>19.43879668648313</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>22.4833826477641</v>
+        <v>22.48338264773943</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.46986224072841</v>
+        <v>25.46986224073398</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.47106050491746</v>
+        <v>31.47106050490836</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>38.52689024669942</v>
+        <v>38.52689024667487</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>40.90039295323302</v>
+        <v>40.90039295321483</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>15.95620331275952</v>
+        <v>15.95620331270677</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.49626275174856</v>
+        <v>32.49626275165761</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>37.00165453179548</v>
+        <v>37.00165453175137</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-14.03072386290532</v>
+        <v>-14.03072386288224</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.41744729063285</v>
+        <v>24.41744729069287</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.86816483921066</v>
+        <v>29.86816483926273</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>1.994970014020762</v>
+        <v>1.99497001398802</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.80909038261157</v>
+        <v>11.80909038264261</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.05634634178082</v>
+        <v>16.05634634188189</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>14.98048674850909</v>
+        <v>14.98048674849477</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>18.02269594224074</v>
+        <v>18.02269594220823</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>21.00847240179749</v>
+        <v>21.00847240180908</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>27.00655903267809</v>
+        <v>27.00655903271948</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.06092111311355</v>
+        <v>34.06092111314163</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.43404750792834</v>
+        <v>36.43404750797643</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>11.49262232418144</v>
+        <v>11.4926223241944</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.03001841971982</v>
+        <v>28.03001841969742</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>32.53444852181329</v>
+        <v>32.53444852178544</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-8.760038536142677</v>
+        <v>-8.760038536143927</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.69227161475933</v>
+        <v>29.69227161479025</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>35.14430304075691</v>
+        <v>35.14430304080238</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>7.264691636540444</v>
+        <v>7.264691636569093</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>17.08172977831989</v>
+        <v>17.08172977831046</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.32992572775836</v>
+        <v>21.32992572774438</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>20.25363431919734</v>
+        <v>20.25363431928261</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.29787111790713</v>
+        <v>23.29787111787416</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.28439230336883</v>
+        <v>26.28439230339748</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.28488630110863</v>
+        <v>32.28488630113569</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>39.34093583552604</v>
+        <v>39.34093583555867</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>41.71453442578027</v>
+        <v>41.71453442581085</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.76939307305454</v>
+        <v>16.76939307313799</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.30998334373353</v>
+        <v>33.3099833437532</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>37.81549299706253</v>
+        <v>37.81549299708198</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-1.422701994744646</v>
+        <v>-1.422701994788302</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.02953451983458</v>
+        <v>37.02953451982367</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.48197590815735</v>
+        <v>42.481975908191</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>14.60325113715342</v>
+        <v>14.60325113709862</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>24.42056156089646</v>
+        <v>24.42056156088475</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.66919199755037</v>
+        <v>28.66919199758959</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.59289212003298</v>
+        <v>27.59289212005913</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.63746532681548</v>
+        <v>30.63746532682367</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>33.62434271205339</v>
+        <v>33.62434271206681</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>39.62600691086689</v>
+        <v>39.62600691088986</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>46.68219974172487</v>
+        <v>46.68219974174693</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>49.05598782406926</v>
+        <v>49.05598782409859</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.11030838817171</v>
+        <v>24.11030838817785</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>40.65112656451177</v>
+        <v>40.65112656449097</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>45.15707811351925</v>
+        <v>45.15707811356302</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-13.44150599002726</v>
+        <v>-13.44150599001248</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.0058420307827</v>
+        <v>25.0058420307071</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.4561389263803</v>
+        <v>30.4561389263147</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>2.583565372642422</v>
+        <v>2.583565372677892</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>12.39787266326746</v>
+        <v>12.39787266318379</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.64480624865794</v>
+        <v>16.64480624864225</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>15.56856366829382</v>
+        <v>15.56856366838113</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>18.61116959541803</v>
+        <v>18.6111695954269</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>21.59670564883757</v>
+        <v>21.59670564883643</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.59421794837774</v>
+        <v>27.59421794835091</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>34.6485088020477</v>
+        <v>34.64850880202962</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>37.02143026653246</v>
+        <v>37.02143026649119</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>12.08033574440926</v>
+        <v>12.08033574443746</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.61772794596075</v>
+        <v>28.61772794593608</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>33.12180569752857</v>
+        <v>33.1218056974939</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-8.170431492573559</v>
+        <v>-8.170431492574128</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.28105543096447</v>
+        <v>30.28105543097857</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.73266609623809</v>
+        <v>35.73266609624059</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>7.853676428408132</v>
+        <v>7.853676428439282</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>17.67090139007385</v>
+        <v>17.67090139003747</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>21.91877489886954</v>
+        <v>21.91877489893502</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>20.84210053258473</v>
+        <v>20.84210053265954</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>23.8867339971886</v>
+        <v>23.88673399725579</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>26.87301472123377</v>
+        <v>26.87301472122092</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.87293429506306</v>
+        <v>32.87293429507761</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.92891253605799</v>
+        <v>39.92891253604708</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>42.30230614604343</v>
+        <v>42.30230614600865</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.3574956644143</v>
+        <v>17.35749566439929</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.89808194675109</v>
+        <v>33.89808194671448</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.40323916700575</v>
+        <v>38.4032391669389</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-0.8330465033826364</v>
+        <v>-0.8330465033289762</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.61836678590001</v>
+        <v>37.61836678592547</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>43.07038739477915</v>
+        <v>43.07038739486919</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>15.19228426465864</v>
+        <v>15.19228426462908</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.00978149331914</v>
+        <v>25.00978149328594</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.25808948726754</v>
+        <v>29.25808948726072</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.18140668988283</v>
+        <v>28.18140668988078</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31.226376543881</v>
+        <v>31.22637654391226</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>34.21301346944975</v>
+        <v>34.2130134694651</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>40.21410315521419</v>
+        <v>40.21410315520032</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>47.27022468662975</v>
+        <v>47.27022468661076</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>49.64380779169599</v>
+        <v>49.64380779169338</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>24.6984592393633</v>
+        <v>24.69845923935761</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>41.2392734137284</v>
+        <v>41.2392734136877</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>45.74487252465681</v>
+        <v>45.74487252464522</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-4.126650714500304</v>
+        <v>-4.126650714542595</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>34.32227860328479</v>
+        <v>34.32227860325671</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>39.77302907872948</v>
+        <v>39.77302907871413</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>11.89999154205296</v>
+        <v>11.8999915419993</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>21.71461707655581</v>
+        <v>21.71461707652659</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.96190203035021</v>
+        <v>25.96190203038307</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.88597013266579</v>
+        <v>24.88597013271626</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>27.9285892668652</v>
+        <v>27.92858926693125</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.91438328104439</v>
+        <v>30.91438328108043</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.91233483006366</v>
+        <v>36.9123348300225</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>43.96692123882181</v>
+        <v>43.96692123884182</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>46.34005895817441</v>
+        <v>46.34005895818692</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>21.39780941333745</v>
+        <v>21.39780941323468</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.93580218634682</v>
+        <v>37.93580218636762</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>42.44025989862419</v>
+        <v>42.44025989857474</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1.144522251314381</v>
+        <v>1.144522251281412</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>39.59759060228899</v>
+        <v>39.59759060229081</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>45.04965493864793</v>
+        <v>45.04965493866976</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>17.1702008566074</v>
+        <v>17.17020085660445</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.98774419516226</v>
+        <v>26.98774419517568</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.23596911592281</v>
+        <v>31.23596911595623</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.15960544102839</v>
+        <v>30.15960544100065</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.20425220189091</v>
+        <v>33.20425220188966</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.19079092214989</v>
+        <v>36.19079092211362</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.19114988365507</v>
+        <v>42.19114988365939</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>49.24742376219527</v>
+        <v>49.24742376222005</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>51.62103366691352</v>
+        <v>51.62103366687191</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>26.6750679294071</v>
+        <v>26.6750679293614</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.21625490916463</v>
+        <v>43.21625490917236</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>47.7217921505036</v>
+        <v>47.72179215056136</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>8.481131454614367</v>
+        <v>8.481131454645972</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>46.9341261365237</v>
+        <v>46.93412613656622</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>52.38660044673114</v>
+        <v>52.38660044681504</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.50803297554401</v>
+        <v>24.50803297551695</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>34.32584858022292</v>
+        <v>34.32584858024998</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.57450799468771</v>
+        <v>38.57450799469726</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>37.49813583671724</v>
+        <v>37.49813583671883</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>40.54311899435564</v>
+        <v>40.54311899428731</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>43.53001391716137</v>
+        <v>43.53001391714852</v>
       </c>
     </row>
     <row r="716">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.58796028340421</v>
+        <v>56.58796028342218</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>58.96175968193748</v>
+        <v>58.96175968192043</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>34.01525589163023</v>
+        <v>34.0152558915768</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>50.55667075569809</v>
+        <v>50.55667075576585</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>55.0626498998146</v>
+        <v>55.06264989984666</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-10.1420299352595</v>
+        <v>-10.14202993522915</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.30526341862335</v>
+        <v>28.30526341860209</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.75588304334363</v>
+        <v>33.75588304337444</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5.883607274621934</v>
+        <v>5.88360727455736</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>15.6975378780825</v>
+        <v>15.69753787811467</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>19.94470690349126</v>
+        <v>19.94470690351389</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>18.86892449584596</v>
+        <v>18.86892449588302</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.91109646602458</v>
+        <v>21.91109646602436</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.89681219359923</v>
+        <v>24.89681219367267</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.89471834849158</v>
+        <v>30.89471834848043</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>37.94893561578218</v>
+        <v>37.94893561577445</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.32202741961126</v>
+        <v>40.32202741959648</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>15.38106543671281</v>
+        <v>15.381065436731</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.91811113838903</v>
+        <v>31.91811113838608</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.42245377149302</v>
+        <v>36.42245377144823</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-4.870673948555325</v>
+        <v>-4.870673948532247</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>33.58075829286454</v>
+        <v>33.58075829289763</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.03269176449331</v>
+        <v>39.0326917645564</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.1539996159743</v>
+        <v>11.15399961600204</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.97084792083106</v>
+        <v>20.97084792084049</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.21895690653573</v>
+        <v>25.21895690654904</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>24.14274272463561</v>
+        <v>24.14274272464288</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.18694224826711</v>
+        <v>27.18694224829167</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.17340267683587</v>
+        <v>30.17340267691477</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.17371614333982</v>
+        <v>36.17371614337961</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>43.229620821184</v>
+        <v>43.22962082118025</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>45.60318480988283</v>
+        <v>45.60318480987567</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>20.65850672644708</v>
+        <v>20.6585067264082</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>37.19874652137096</v>
+        <v>37.19874652138222</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.70416867447184</v>
+        <v>41.70416867450606</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2.465916059950384</v>
+        <v>2.465916059945609</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>40.91727465455577</v>
+        <v>40.91727465460841</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>46.36961808363802</v>
+        <v>46.36961808366883</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>18.49181254347743</v>
+        <v>18.49181254348403</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.30893311724438</v>
+        <v>28.30893311725427</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>32.55747657987584</v>
+        <v>32.55747657986936</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>31.48125390794555</v>
+        <v>31.48125390799308</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.52578982800392</v>
+        <v>34.52578982800915</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>37.51260644472509</v>
+        <v>37.51260644476943</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>43.51409010472824</v>
+        <v>43.51409010476826</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>50.57013807677154</v>
+        <v>50.57013807688614</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>52.94389155173067</v>
+        <v>52.94389155180343</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.99867541392726</v>
+        <v>27.99867541397523</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>44.53914310147505</v>
+        <v>44.53914310151131</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>49.04500713972632</v>
+        <v>49.04500713975577</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-11.13997576432243</v>
+        <v>-11.13997576436779</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.30898216701874</v>
+        <v>27.30898216703534</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.75956266656183</v>
+        <v>32.7595626666587</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>4.886004736687962</v>
+        <v>4.886004736611564</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>14.70072990510473</v>
+        <v>14.70072990506324</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>18.94787855644247</v>
+        <v>18.9478785563937</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>17.87169844137432</v>
+        <v>17.87169844137636</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>20.91443157573022</v>
+        <v>20.91443157573692</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>23.90011442751407</v>
+        <v>23.9001144274919</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.89797404240474</v>
+        <v>29.89797404249864</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.95258097037598</v>
+        <v>36.95258097037541</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>39.32561615307284</v>
+        <v>39.32561615304908</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>14.38343330633304</v>
+        <v>14.3834333063601</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>30.9215208878376</v>
+        <v>30.92152088784658</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.42582673045663</v>
+        <v>35.42582673044743</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-5.868435267031462</v>
+        <v>-5.868435266982349</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.58466172543595</v>
+        <v>32.58466172543936</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>38.0365560571403</v>
+        <v>38.03655605716486</v>
       </c>
     </row>
     <row r="785">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>19.97422465756202</v>
+        <v>19.97422465762648</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.22231326678914</v>
+        <v>24.22231326681699</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>23.14570137336548</v>
+        <v>23.1457013734005</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.19046213482536</v>
+        <v>26.1904621348963</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.17688968323526</v>
+        <v>29.17688968326504</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.17715667572978</v>
+        <v>35.1771566757325</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>42.23345106815694</v>
+        <v>42.23345106809862</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>44.60695841832447</v>
+        <v>44.60695841824023</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>19.66105943549703</v>
+        <v>19.66105943547134</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.20234123030187</v>
+        <v>36.20234123025833</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>40.70772658487763</v>
+        <v>40.70772658487843</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>1.468718949906386</v>
+        <v>1.468718949931624</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.92174228645311</v>
+        <v>39.92174228649108</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>45.37404658700146</v>
+        <v>45.37404658703966</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>17.49495880826364</v>
+        <v>17.49495880823886</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>27.31287404488799</v>
+        <v>27.31287404486923</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.56139716049043</v>
+        <v>31.56139716045348</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>30.48477680560907</v>
+        <v>30.48477680574731</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.52987396498943</v>
+        <v>33.52987396502559</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>36.5166577307929</v>
+        <v>36.51665773087043</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>42.51809491683278</v>
+        <v>42.51809491681777</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>49.57453260013042</v>
+        <v>49.57453260013133</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>51.94822945418926</v>
+        <v>51.9482294542361</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>27.0017923955734</v>
+        <v>27.00179239556953</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>43.54330208084005</v>
+        <v>43.54330208081799</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>48.04912934840152</v>
+        <v>48.0491293483972</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-15.9358401295842</v>
+        <v>-15.93584012957362</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.51087963399496</v>
+        <v>22.51087963404509</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.96139488648614</v>
+        <v>27.96139488647807</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>0.08905547863016849</v>
+        <v>0.08905547867450636</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>9.902825339995641</v>
+        <v>9.902825340063625</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>14.14993418353972</v>
+        <v>14.14993418356132</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.07401221242119</v>
+        <v>13.07401221245325</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.11613873697641</v>
+        <v>16.11613873695446</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>19.10181659820571</v>
+        <v>19.10181659825835</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.0995844159045</v>
+        <v>25.09958441594452</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.15366804066176</v>
+        <v>32.15366804066539</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.52670178169834</v>
+        <v>34.52670178172016</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>9.586184026692788</v>
+        <v>9.586184026640719</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.12297693443943</v>
+        <v>26.12297693442295</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.6272491032245</v>
+        <v>30.62724910314708</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-10.66412317495278</v>
+        <v>-10.66412317498314</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.786735482213</v>
+        <v>27.78673548220561</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>33.23856457041748</v>
+        <v>33.23856457041168</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>5.359808837312155</v>
+        <v>5.359808837297603</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>15.17649640212099</v>
+        <v>15.17649640213804</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>19.42454521306504</v>
+        <v>19.42454521312575</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>18.34819143571033</v>
+        <v>18.34819143572625</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.39234552516237</v>
+        <v>21.39234552517544</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>24.37876809591253</v>
+        <v>24.37876809590514</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.37894314751204</v>
+        <v>30.37894314753546</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>37.43471417641948</v>
+        <v>37.43471417647791</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>39.80822009884039</v>
+        <v>39.80822009882471</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>14.86398625986842</v>
+        <v>14.86398625988707</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>31.40397326932284</v>
+        <v>31.40397326940686</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>35.9093249605593</v>
+        <v>35.90932496057715</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-3.327016419830418</v>
+        <v>-3.327016419752997</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.12376860245345</v>
+        <v>35.12376860249131</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>40.57600763384758</v>
+        <v>40.57600763393864</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>12.6981384949577</v>
+        <v>12.69813849498612</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>22.51509833104742</v>
+        <v>22.51509833106072</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.76358160976124</v>
+        <v>26.76358160978932</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.68721937085072</v>
+        <v>25.68721937089029</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.73170985583252</v>
+        <v>28.73170985583888</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>31.71848861148569</v>
+        <v>31.71848861149911</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>37.71983382206989</v>
+        <v>37.71983382211081</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>44.77574814002733</v>
+        <v>44.7757481399955</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>47.14944354440163</v>
+        <v>47.14944354443892</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.20467164741265</v>
+        <v>22.20467164747268</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>38.74488655323879</v>
+        <v>38.74488655320604</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>43.25068012071327</v>
+        <v>43.25068012071304</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-11.33459393924645</v>
+        <v>-11.33459393922735</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.11252385975811</v>
+        <v>27.11252385971445</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>32.56315591540081</v>
+        <v>32.56315591543628</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>4.690930403533709</v>
+        <v>4.690930403513018</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>14.50476959756693</v>
+        <v>14.50476959756147</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>18.75195196287714</v>
+        <v>18.75195196277073</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>17.67616025981104</v>
+        <v>17.67616025982946</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>20.71826519890797</v>
+        <v>20.71826519894139</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.70399552142672</v>
+        <v>23.70399552146173</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.70191314074784</v>
+        <v>29.70191314079196</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.75608627772399</v>
+        <v>36.75608627769887</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>39.12918546501297</v>
+        <v>39.12918546498443</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>14.18836751316783</v>
+        <v>14.18836751317806</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.72529682732707</v>
+        <v>30.72529682732695</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>35.22965488973469</v>
+        <v>35.22965488969092</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-6.063496485036669</v>
+        <v>-6.063496485010294</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>32.38776018946183</v>
+        <v>32.38776018948434</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>37.83970609720032</v>
+        <v>37.83970609721055</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>9.961064196068516</v>
+        <v>9.961064196041232</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.77782108460829</v>
+        <v>19.77782108458464</v>
       </c>
     </row>
     <row r="877">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.94971992347521</v>
+        <v>22.94971992349386</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.99385241151063</v>
+        <v>25.99385241148141</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.98032744162733</v>
+        <v>28.98032744165178</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.98065236362393</v>
+        <v>34.9806523636378</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.03651290772362</v>
+        <v>42.03651290770168</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>44.41008428307558</v>
+        <v>44.41008428305955</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.46555023637941</v>
+        <v>19.46555023639715</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.00567363536712</v>
+        <v>36.00567363529754</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>40.51111122446733</v>
+        <v>40.5111112244571</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>1.273180564446672</v>
+        <v>1.273180564366182</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.72436359640975</v>
+        <v>39.72436359639576</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>45.17671945926841</v>
+        <v>45.17671945923556</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>17.29896417231637</v>
+        <v>17.2989641723598</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>27.11599333066865</v>
+        <v>27.11599333065399</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>31.36455013764308</v>
+        <v>31.36455013767957</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>30.28831815588321</v>
+        <v>30.28831815596075</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>33.33278704058412</v>
+        <v>33.33278704063721</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>36.31961825790441</v>
+        <v>36.31961825792703</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>42.32111336984829</v>
+        <v>42.32111336990809</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.37711720734708</v>
+        <v>49.37711720739779</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>51.75087806806894</v>
+        <v>51.75087806808531</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>26.80580596510165</v>
+        <v>26.80580596512689</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>43.34615725840732</v>
+        <v>43.34615725840357</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>47.85203673081006</v>
+        <v>47.85203673084723</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-7.028537115846891</v>
+        <v>-7.028537115845072</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.4189956289056</v>
+        <v>31.41899562887457</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.86951218088055</v>
+        <v>36.86951218084496</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>8.997506819710477</v>
+        <v>8.997506819803018</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>18.81162872236669</v>
+        <v>18.81162872241864</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>23.05876361412757</v>
+        <v>23.05876361409448</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>21.98285649057859</v>
+        <v>21.9828564906243</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.02522462561162</v>
+        <v>25.02522462562561</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.01091423872574</v>
+        <v>28.01091423874018</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>34.00870507471407</v>
+        <v>34.00870507472635</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>41.06297338480957</v>
+        <v>41.06297338487209</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>43.43598703418368</v>
+        <v>43.4359870342212</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>18.49486180806937</v>
+        <v>18.49486180815577</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>35.03213789159113</v>
+        <v>35.03213789160478</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>39.5364225730888</v>
+        <v>39.53642257311608</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-1.757735922274353</v>
+        <v>-1.757735922205232</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.69393573765993</v>
+        <v>36.69393573763094</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>42.14576608849271</v>
+        <v>42.14576608844121</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>14.26734439324607</v>
+        <v>14.26734439314421</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>24.08438399635011</v>
+        <v>24.08438399636102</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.33245881876647</v>
+        <v>28.332458818741</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>27.25611993461441</v>
+        <v>27.2561199346517</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>30.30051562154099</v>
+        <v>30.30051562157362</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>33.28694991221951</v>
+        <v>33.28694991227761</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.28714806145993</v>
+        <v>39.28714806146721</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>46.34310377873354</v>
+        <v>46.34310377873979</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>48.71658958734898</v>
+        <v>48.71658958733522</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>23.77174833044844</v>
+        <v>23.77174833051779</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>40.31221851460762</v>
+        <v>40.31221851456408</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>44.81758267992521</v>
+        <v>44.81758267998967</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>5.579069796932824</v>
+        <v>5.579069796956016</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>44.0306678102543</v>
+        <v>44.03066781022792</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>49.4829081105627</v>
+        <v>49.48290811055179</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>21.60537299152841</v>
+        <v>21.6053729914602</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>31.42268485597301</v>
+        <v>31.42268485602122</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>35.6711941608236</v>
+        <v>35.67119416079905</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>34.59484681925576</v>
+        <v>34.59484681928487</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>37.6395788923451</v>
+        <v>37.63957889242502</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>40.62636937961591</v>
+        <v>40.62636937963421</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>46.62773770291236</v>
+        <v>46.62773770289348</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>53.68383670913036</v>
+        <v>53.68383670913025</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>56.05751200852174</v>
+        <v>56.05751200848525</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>31.11213269021553</v>
+        <v>31.11213269021871</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>47.65283075905919</v>
+        <v>47.65283075902599</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>52.15863681308579</v>
+        <v>52.15863681312194</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-9.938869278035074</v>
+        <v>-9.938869278019613</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.51000907376774</v>
+        <v>28.5100090737549</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>33.9606036143804</v>
+        <v>33.96060361435846</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>6.08722736917073</v>
+        <v>6.087227369127074</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>15.90193674703985</v>
+        <v>15.90193674701598</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>20.1491003736526</v>
+        <v>20.14910037370603</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>19.07292687495626</v>
+        <v>19.07292687496695</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>22.11565793072182</v>
+        <v>22.11565793075377</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>25.10135364495514</v>
+        <v>25.10135364501255</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>31.0992136304649</v>
+        <v>31.09921363049036</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>38.15380871926519</v>
+        <v>38.15380871922426</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>40.52685134539607</v>
+        <v>40.52685134539516</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>15.58468580768047</v>
+        <v>15.58468580767774</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>32.12274271931145</v>
+        <v>32.12274271931418</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>36.62706400920914</v>
+        <v>36.62706400923642</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-4.667291897018888</v>
+        <v>-4.667291897030257</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.78572550201469</v>
+        <v>33.78572550197512</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>39.23763387564875</v>
+        <v>39.23763387566331</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>11.35784120052179</v>
+        <v>11.35784120048177</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>21.17546837270632</v>
+        <v>21.17546837263447</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.4235719548158</v>
+        <v>25.42357195482921</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>24.3469666806632</v>
+        <v>24.34696668062614</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>27.39172535982348</v>
+        <v>27.39172535981609</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>30.37816576933588</v>
+        <v>30.37816576928392</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.37843312753969</v>
+        <v>36.37843312755788</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>43.43471567690293</v>
+        <v>43.43471567685529</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>45.8082304708644</v>
+        <v>45.80823047085156</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>20.86234879824954</v>
+        <v>20.86234879823931</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>37.40359991636561</v>
+        <v>37.4035999163207</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>41.90900071711863</v>
+        <v>41.90900071714216</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>2.669664423771817</v>
+        <v>2.669664423760903</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>41.12260816281096</v>
+        <v>41.12260816275275</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>46.57492650418445</v>
+        <v>46.57492650418081</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>18.69602041610394</v>
+        <v>18.6960204160903</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>28.5139198543292</v>
+        <v>28.51391985430555</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>32.76245794077059</v>
+        <v>32.76245794072693</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>31.68584419988522</v>
+        <v>31.68584419995434</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>34.73093927424864</v>
+        <v>34.73093927434493</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>37.71773589875605</v>
+        <v>37.71773589874502</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>43.71917345682576</v>
+        <v>43.71917345681143</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>50.77559929665247</v>
+        <v>50.77559929666509</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>53.14930359269377</v>
+        <v>53.14930359266637</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>28.20288385231813</v>
+        <v>28.20288385228266</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>44.7443628569155</v>
+        <v>44.74436285690277</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>49.25020556840687</v>
+        <v>49.25020556837117</v>
       </c>
     </row>
   </sheetData>
